--- a/VD_HERRAMIENTA_FILTRADA_RRHH.xlsx
+++ b/VD_HERRAMIENTA_FILTRADA_RRHH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://improven.sharepoint.com/sites/INDE02OPE/Documentos compartidos/General/03.1. GENERACIÓN DE DATOS/MaestrosSubidaApp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eramos\Improven Consulting, SL\INDE02OPE - Documentos\General\03.1. GENERACIÓN DE DATOS\MaestrosSubidaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{0F9BD320-8A1E-4729-A1C9-E0C18B13872B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62D29311-CD1D-435B-96A0-F80583A4E995}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053028D5-4F6D-4CC0-9B8F-BB5978B096B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4010" yWindow="4030" windowWidth="16920" windowHeight="10450" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16788" uniqueCount="1631">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16790" uniqueCount="1633">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -4943,6 +4943,12 @@
   </si>
   <si>
     <t>a73c08b</t>
+  </si>
+  <si>
+    <t>alejandra@create-store.com</t>
+  </si>
+  <si>
+    <t>F2ll3sT43</t>
   </si>
 </sst>
 </file>
@@ -4961,6 +4967,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -5003,12 +5010,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5865,2406 +5874,6 @@
           <cell r="B78" t="str">
             <v>mvicent@sklum.com</v>
           </cell>
-        </row>
-        <row r="79">
-          <cell r="A79"/>
-          <cell r="B79"/>
-        </row>
-        <row r="80">
-          <cell r="A80"/>
-          <cell r="B80"/>
-        </row>
-        <row r="81">
-          <cell r="A81"/>
-          <cell r="B81"/>
-        </row>
-        <row r="82">
-          <cell r="A82"/>
-          <cell r="B82"/>
-        </row>
-        <row r="83">
-          <cell r="A83"/>
-          <cell r="B83"/>
-        </row>
-        <row r="84">
-          <cell r="A84"/>
-          <cell r="B84"/>
-        </row>
-        <row r="85">
-          <cell r="A85"/>
-          <cell r="B85"/>
-        </row>
-        <row r="86">
-          <cell r="A86"/>
-          <cell r="B86"/>
-        </row>
-        <row r="87">
-          <cell r="A87"/>
-          <cell r="B87"/>
-        </row>
-        <row r="88">
-          <cell r="A88"/>
-          <cell r="B88"/>
-        </row>
-        <row r="89">
-          <cell r="A89"/>
-          <cell r="B89"/>
-        </row>
-        <row r="90">
-          <cell r="A90"/>
-          <cell r="B90"/>
-        </row>
-        <row r="91">
-          <cell r="A91"/>
-          <cell r="B91"/>
-        </row>
-        <row r="92">
-          <cell r="A92"/>
-          <cell r="B92"/>
-        </row>
-        <row r="93">
-          <cell r="A93"/>
-          <cell r="B93"/>
-        </row>
-        <row r="94">
-          <cell r="A94"/>
-          <cell r="B94"/>
-        </row>
-        <row r="95">
-          <cell r="A95"/>
-          <cell r="B95"/>
-        </row>
-        <row r="96">
-          <cell r="A96"/>
-          <cell r="B96"/>
-        </row>
-        <row r="97">
-          <cell r="A97"/>
-          <cell r="B97"/>
-        </row>
-        <row r="98">
-          <cell r="A98"/>
-          <cell r="B98"/>
-        </row>
-        <row r="99">
-          <cell r="A99"/>
-          <cell r="B99"/>
-        </row>
-        <row r="100">
-          <cell r="A100"/>
-          <cell r="B100"/>
-        </row>
-        <row r="101">
-          <cell r="A101"/>
-          <cell r="B101"/>
-        </row>
-        <row r="102">
-          <cell r="A102"/>
-          <cell r="B102"/>
-        </row>
-        <row r="103">
-          <cell r="A103"/>
-          <cell r="B103"/>
-        </row>
-        <row r="104">
-          <cell r="A104"/>
-          <cell r="B104"/>
-        </row>
-        <row r="105">
-          <cell r="A105"/>
-          <cell r="B105"/>
-        </row>
-        <row r="106">
-          <cell r="A106"/>
-          <cell r="B106"/>
-        </row>
-        <row r="107">
-          <cell r="A107"/>
-          <cell r="B107"/>
-        </row>
-        <row r="108">
-          <cell r="A108"/>
-          <cell r="B108"/>
-        </row>
-        <row r="109">
-          <cell r="A109"/>
-          <cell r="B109"/>
-        </row>
-        <row r="110">
-          <cell r="A110"/>
-          <cell r="B110"/>
-        </row>
-        <row r="111">
-          <cell r="A111"/>
-          <cell r="B111"/>
-        </row>
-        <row r="112">
-          <cell r="A112"/>
-          <cell r="B112"/>
-        </row>
-        <row r="113">
-          <cell r="A113"/>
-          <cell r="B113"/>
-        </row>
-        <row r="114">
-          <cell r="A114"/>
-          <cell r="B114"/>
-        </row>
-        <row r="115">
-          <cell r="A115"/>
-          <cell r="B115"/>
-        </row>
-        <row r="116">
-          <cell r="A116"/>
-          <cell r="B116"/>
-        </row>
-        <row r="117">
-          <cell r="A117"/>
-          <cell r="B117"/>
-        </row>
-        <row r="118">
-          <cell r="A118"/>
-          <cell r="B118"/>
-        </row>
-        <row r="119">
-          <cell r="A119"/>
-          <cell r="B119"/>
-        </row>
-        <row r="120">
-          <cell r="A120"/>
-          <cell r="B120"/>
-        </row>
-        <row r="121">
-          <cell r="A121"/>
-          <cell r="B121"/>
-        </row>
-        <row r="122">
-          <cell r="A122"/>
-          <cell r="B122"/>
-        </row>
-        <row r="123">
-          <cell r="A123"/>
-          <cell r="B123"/>
-        </row>
-        <row r="124">
-          <cell r="A124"/>
-          <cell r="B124"/>
-        </row>
-        <row r="125">
-          <cell r="A125"/>
-          <cell r="B125"/>
-        </row>
-        <row r="126">
-          <cell r="A126"/>
-          <cell r="B126"/>
-        </row>
-        <row r="127">
-          <cell r="A127"/>
-          <cell r="B127"/>
-        </row>
-        <row r="128">
-          <cell r="A128"/>
-          <cell r="B128"/>
-        </row>
-        <row r="129">
-          <cell r="A129"/>
-          <cell r="B129"/>
-        </row>
-        <row r="130">
-          <cell r="A130"/>
-          <cell r="B130"/>
-        </row>
-        <row r="131">
-          <cell r="A131"/>
-          <cell r="B131"/>
-        </row>
-        <row r="132">
-          <cell r="A132"/>
-          <cell r="B132"/>
-        </row>
-        <row r="133">
-          <cell r="A133"/>
-          <cell r="B133"/>
-        </row>
-        <row r="134">
-          <cell r="A134"/>
-          <cell r="B134"/>
-        </row>
-        <row r="135">
-          <cell r="A135"/>
-          <cell r="B135"/>
-        </row>
-        <row r="136">
-          <cell r="A136"/>
-          <cell r="B136"/>
-        </row>
-        <row r="137">
-          <cell r="A137"/>
-          <cell r="B137"/>
-        </row>
-        <row r="138">
-          <cell r="A138"/>
-          <cell r="B138"/>
-        </row>
-        <row r="139">
-          <cell r="A139"/>
-          <cell r="B139"/>
-        </row>
-        <row r="140">
-          <cell r="A140"/>
-          <cell r="B140"/>
-        </row>
-        <row r="141">
-          <cell r="A141"/>
-          <cell r="B141"/>
-        </row>
-        <row r="142">
-          <cell r="A142"/>
-          <cell r="B142"/>
-        </row>
-        <row r="143">
-          <cell r="A143"/>
-          <cell r="B143"/>
-        </row>
-        <row r="144">
-          <cell r="A144"/>
-          <cell r="B144"/>
-        </row>
-        <row r="145">
-          <cell r="A145"/>
-          <cell r="B145"/>
-        </row>
-        <row r="146">
-          <cell r="A146"/>
-          <cell r="B146"/>
-        </row>
-        <row r="147">
-          <cell r="A147"/>
-          <cell r="B147"/>
-        </row>
-        <row r="148">
-          <cell r="A148"/>
-          <cell r="B148"/>
-        </row>
-        <row r="149">
-          <cell r="A149"/>
-          <cell r="B149"/>
-        </row>
-        <row r="150">
-          <cell r="A150"/>
-          <cell r="B150"/>
-        </row>
-        <row r="151">
-          <cell r="A151"/>
-          <cell r="B151"/>
-        </row>
-        <row r="152">
-          <cell r="A152"/>
-          <cell r="B152"/>
-        </row>
-        <row r="153">
-          <cell r="A153"/>
-          <cell r="B153"/>
-        </row>
-        <row r="154">
-          <cell r="A154"/>
-          <cell r="B154"/>
-        </row>
-        <row r="155">
-          <cell r="A155"/>
-          <cell r="B155"/>
-        </row>
-        <row r="156">
-          <cell r="A156"/>
-          <cell r="B156"/>
-        </row>
-        <row r="157">
-          <cell r="A157"/>
-          <cell r="B157"/>
-        </row>
-        <row r="158">
-          <cell r="A158"/>
-          <cell r="B158"/>
-        </row>
-        <row r="159">
-          <cell r="A159"/>
-          <cell r="B159"/>
-        </row>
-        <row r="160">
-          <cell r="A160"/>
-          <cell r="B160"/>
-        </row>
-        <row r="161">
-          <cell r="A161"/>
-          <cell r="B161"/>
-        </row>
-        <row r="162">
-          <cell r="A162"/>
-          <cell r="B162"/>
-        </row>
-        <row r="163">
-          <cell r="A163"/>
-          <cell r="B163"/>
-        </row>
-        <row r="164">
-          <cell r="A164"/>
-          <cell r="B164"/>
-        </row>
-        <row r="165">
-          <cell r="A165"/>
-          <cell r="B165"/>
-        </row>
-        <row r="166">
-          <cell r="A166"/>
-          <cell r="B166"/>
-        </row>
-        <row r="167">
-          <cell r="A167"/>
-          <cell r="B167"/>
-        </row>
-        <row r="168">
-          <cell r="A168"/>
-          <cell r="B168"/>
-        </row>
-        <row r="169">
-          <cell r="A169"/>
-          <cell r="B169"/>
-        </row>
-        <row r="170">
-          <cell r="A170"/>
-          <cell r="B170"/>
-        </row>
-        <row r="171">
-          <cell r="A171"/>
-          <cell r="B171"/>
-        </row>
-        <row r="172">
-          <cell r="A172"/>
-          <cell r="B172"/>
-        </row>
-        <row r="173">
-          <cell r="A173"/>
-          <cell r="B173"/>
-        </row>
-        <row r="174">
-          <cell r="A174"/>
-          <cell r="B174"/>
-        </row>
-        <row r="175">
-          <cell r="A175"/>
-          <cell r="B175"/>
-        </row>
-        <row r="176">
-          <cell r="A176"/>
-          <cell r="B176"/>
-        </row>
-        <row r="177">
-          <cell r="A177"/>
-          <cell r="B177"/>
-        </row>
-        <row r="178">
-          <cell r="A178"/>
-          <cell r="B178"/>
-        </row>
-        <row r="179">
-          <cell r="A179"/>
-          <cell r="B179"/>
-        </row>
-        <row r="180">
-          <cell r="A180"/>
-          <cell r="B180"/>
-        </row>
-        <row r="181">
-          <cell r="A181"/>
-          <cell r="B181"/>
-        </row>
-        <row r="182">
-          <cell r="A182"/>
-          <cell r="B182"/>
-        </row>
-        <row r="183">
-          <cell r="A183"/>
-          <cell r="B183"/>
-        </row>
-        <row r="184">
-          <cell r="A184"/>
-          <cell r="B184"/>
-        </row>
-        <row r="185">
-          <cell r="A185"/>
-          <cell r="B185"/>
-        </row>
-        <row r="186">
-          <cell r="A186"/>
-          <cell r="B186"/>
-        </row>
-        <row r="187">
-          <cell r="A187"/>
-          <cell r="B187"/>
-        </row>
-        <row r="188">
-          <cell r="A188"/>
-          <cell r="B188"/>
-        </row>
-        <row r="189">
-          <cell r="A189"/>
-          <cell r="B189"/>
-        </row>
-        <row r="190">
-          <cell r="A190"/>
-          <cell r="B190"/>
-        </row>
-        <row r="191">
-          <cell r="A191"/>
-          <cell r="B191"/>
-        </row>
-        <row r="192">
-          <cell r="A192"/>
-          <cell r="B192"/>
-        </row>
-        <row r="193">
-          <cell r="A193"/>
-          <cell r="B193"/>
-        </row>
-        <row r="194">
-          <cell r="A194"/>
-          <cell r="B194"/>
-        </row>
-        <row r="195">
-          <cell r="A195"/>
-          <cell r="B195"/>
-        </row>
-        <row r="196">
-          <cell r="A196"/>
-          <cell r="B196"/>
-        </row>
-        <row r="197">
-          <cell r="A197"/>
-          <cell r="B197"/>
-        </row>
-        <row r="198">
-          <cell r="A198"/>
-          <cell r="B198"/>
-        </row>
-        <row r="199">
-          <cell r="A199"/>
-          <cell r="B199"/>
-        </row>
-        <row r="200">
-          <cell r="A200"/>
-          <cell r="B200"/>
-        </row>
-        <row r="201">
-          <cell r="A201"/>
-          <cell r="B201"/>
-        </row>
-        <row r="202">
-          <cell r="A202"/>
-          <cell r="B202"/>
-        </row>
-        <row r="203">
-          <cell r="A203"/>
-          <cell r="B203"/>
-        </row>
-        <row r="204">
-          <cell r="A204"/>
-          <cell r="B204"/>
-        </row>
-        <row r="205">
-          <cell r="A205"/>
-          <cell r="B205"/>
-        </row>
-        <row r="206">
-          <cell r="A206"/>
-          <cell r="B206"/>
-        </row>
-        <row r="207">
-          <cell r="A207"/>
-          <cell r="B207"/>
-        </row>
-        <row r="208">
-          <cell r="A208"/>
-          <cell r="B208"/>
-        </row>
-        <row r="209">
-          <cell r="A209"/>
-          <cell r="B209"/>
-        </row>
-        <row r="210">
-          <cell r="A210"/>
-          <cell r="B210"/>
-        </row>
-        <row r="211">
-          <cell r="A211"/>
-          <cell r="B211"/>
-        </row>
-        <row r="212">
-          <cell r="A212"/>
-          <cell r="B212"/>
-        </row>
-        <row r="213">
-          <cell r="A213"/>
-          <cell r="B213"/>
-        </row>
-        <row r="214">
-          <cell r="A214"/>
-          <cell r="B214"/>
-        </row>
-        <row r="215">
-          <cell r="A215"/>
-          <cell r="B215"/>
-        </row>
-        <row r="216">
-          <cell r="A216"/>
-          <cell r="B216"/>
-        </row>
-        <row r="217">
-          <cell r="A217"/>
-          <cell r="B217"/>
-        </row>
-        <row r="218">
-          <cell r="A218"/>
-          <cell r="B218"/>
-        </row>
-        <row r="219">
-          <cell r="A219"/>
-          <cell r="B219"/>
-        </row>
-        <row r="220">
-          <cell r="A220"/>
-          <cell r="B220"/>
-        </row>
-        <row r="221">
-          <cell r="A221"/>
-          <cell r="B221"/>
-        </row>
-        <row r="222">
-          <cell r="A222"/>
-          <cell r="B222"/>
-        </row>
-        <row r="223">
-          <cell r="A223"/>
-          <cell r="B223"/>
-        </row>
-        <row r="224">
-          <cell r="A224"/>
-          <cell r="B224"/>
-        </row>
-        <row r="225">
-          <cell r="A225"/>
-          <cell r="B225"/>
-        </row>
-        <row r="226">
-          <cell r="A226"/>
-          <cell r="B226"/>
-        </row>
-        <row r="227">
-          <cell r="A227"/>
-          <cell r="B227"/>
-        </row>
-        <row r="228">
-          <cell r="A228"/>
-          <cell r="B228"/>
-        </row>
-        <row r="229">
-          <cell r="A229"/>
-          <cell r="B229"/>
-        </row>
-        <row r="230">
-          <cell r="A230"/>
-          <cell r="B230"/>
-        </row>
-        <row r="231">
-          <cell r="A231"/>
-          <cell r="B231"/>
-        </row>
-        <row r="232">
-          <cell r="A232"/>
-          <cell r="B232"/>
-        </row>
-        <row r="233">
-          <cell r="A233"/>
-          <cell r="B233"/>
-        </row>
-        <row r="234">
-          <cell r="A234"/>
-          <cell r="B234"/>
-        </row>
-        <row r="235">
-          <cell r="A235"/>
-          <cell r="B235"/>
-        </row>
-        <row r="236">
-          <cell r="A236"/>
-          <cell r="B236"/>
-        </row>
-        <row r="237">
-          <cell r="A237"/>
-          <cell r="B237"/>
-        </row>
-        <row r="238">
-          <cell r="A238"/>
-          <cell r="B238"/>
-        </row>
-        <row r="239">
-          <cell r="A239"/>
-          <cell r="B239"/>
-        </row>
-        <row r="240">
-          <cell r="A240"/>
-          <cell r="B240"/>
-        </row>
-        <row r="241">
-          <cell r="A241"/>
-          <cell r="B241"/>
-        </row>
-        <row r="242">
-          <cell r="A242"/>
-          <cell r="B242"/>
-        </row>
-        <row r="243">
-          <cell r="A243"/>
-          <cell r="B243"/>
-        </row>
-        <row r="244">
-          <cell r="A244"/>
-          <cell r="B244"/>
-        </row>
-        <row r="245">
-          <cell r="A245"/>
-          <cell r="B245"/>
-        </row>
-        <row r="246">
-          <cell r="A246"/>
-          <cell r="B246"/>
-        </row>
-        <row r="247">
-          <cell r="A247"/>
-          <cell r="B247"/>
-        </row>
-        <row r="248">
-          <cell r="A248"/>
-          <cell r="B248"/>
-        </row>
-        <row r="249">
-          <cell r="A249"/>
-          <cell r="B249"/>
-        </row>
-        <row r="250">
-          <cell r="A250"/>
-          <cell r="B250"/>
-        </row>
-        <row r="251">
-          <cell r="A251"/>
-          <cell r="B251"/>
-        </row>
-        <row r="252">
-          <cell r="A252"/>
-          <cell r="B252"/>
-        </row>
-        <row r="253">
-          <cell r="A253"/>
-          <cell r="B253"/>
-        </row>
-        <row r="254">
-          <cell r="A254"/>
-          <cell r="B254"/>
-        </row>
-        <row r="255">
-          <cell r="A255"/>
-          <cell r="B255"/>
-        </row>
-        <row r="256">
-          <cell r="A256"/>
-          <cell r="B256"/>
-        </row>
-        <row r="257">
-          <cell r="A257"/>
-          <cell r="B257"/>
-        </row>
-        <row r="258">
-          <cell r="A258"/>
-          <cell r="B258"/>
-        </row>
-        <row r="259">
-          <cell r="A259"/>
-          <cell r="B259"/>
-        </row>
-        <row r="260">
-          <cell r="A260"/>
-          <cell r="B260"/>
-        </row>
-        <row r="261">
-          <cell r="A261"/>
-          <cell r="B261"/>
-        </row>
-        <row r="262">
-          <cell r="A262"/>
-          <cell r="B262"/>
-        </row>
-        <row r="263">
-          <cell r="A263"/>
-          <cell r="B263"/>
-        </row>
-        <row r="264">
-          <cell r="A264"/>
-          <cell r="B264"/>
-        </row>
-        <row r="265">
-          <cell r="A265"/>
-          <cell r="B265"/>
-        </row>
-        <row r="266">
-          <cell r="A266"/>
-          <cell r="B266"/>
-        </row>
-        <row r="267">
-          <cell r="A267"/>
-          <cell r="B267"/>
-        </row>
-        <row r="268">
-          <cell r="A268"/>
-          <cell r="B268"/>
-        </row>
-        <row r="269">
-          <cell r="A269"/>
-          <cell r="B269"/>
-        </row>
-        <row r="270">
-          <cell r="A270"/>
-          <cell r="B270"/>
-        </row>
-        <row r="271">
-          <cell r="A271"/>
-          <cell r="B271"/>
-        </row>
-        <row r="272">
-          <cell r="A272"/>
-          <cell r="B272"/>
-        </row>
-        <row r="273">
-          <cell r="A273"/>
-          <cell r="B273"/>
-        </row>
-        <row r="274">
-          <cell r="A274"/>
-          <cell r="B274"/>
-        </row>
-        <row r="275">
-          <cell r="A275"/>
-          <cell r="B275"/>
-        </row>
-        <row r="276">
-          <cell r="A276"/>
-          <cell r="B276"/>
-        </row>
-        <row r="277">
-          <cell r="A277"/>
-          <cell r="B277"/>
-        </row>
-        <row r="278">
-          <cell r="A278"/>
-          <cell r="B278"/>
-        </row>
-        <row r="279">
-          <cell r="A279"/>
-          <cell r="B279"/>
-        </row>
-        <row r="280">
-          <cell r="A280"/>
-          <cell r="B280"/>
-        </row>
-        <row r="281">
-          <cell r="A281"/>
-          <cell r="B281"/>
-        </row>
-        <row r="282">
-          <cell r="A282"/>
-          <cell r="B282"/>
-        </row>
-        <row r="283">
-          <cell r="A283"/>
-          <cell r="B283"/>
-        </row>
-        <row r="284">
-          <cell r="A284"/>
-          <cell r="B284"/>
-        </row>
-        <row r="285">
-          <cell r="A285"/>
-          <cell r="B285"/>
-        </row>
-        <row r="286">
-          <cell r="A286"/>
-          <cell r="B286"/>
-        </row>
-        <row r="287">
-          <cell r="A287"/>
-          <cell r="B287"/>
-        </row>
-        <row r="288">
-          <cell r="A288"/>
-          <cell r="B288"/>
-        </row>
-        <row r="289">
-          <cell r="A289"/>
-          <cell r="B289"/>
-        </row>
-        <row r="290">
-          <cell r="A290"/>
-          <cell r="B290"/>
-        </row>
-        <row r="291">
-          <cell r="A291"/>
-          <cell r="B291"/>
-        </row>
-        <row r="292">
-          <cell r="A292"/>
-          <cell r="B292"/>
-        </row>
-        <row r="293">
-          <cell r="A293"/>
-          <cell r="B293"/>
-        </row>
-        <row r="294">
-          <cell r="A294"/>
-          <cell r="B294"/>
-        </row>
-        <row r="295">
-          <cell r="A295"/>
-          <cell r="B295"/>
-        </row>
-        <row r="296">
-          <cell r="A296"/>
-          <cell r="B296"/>
-        </row>
-        <row r="297">
-          <cell r="A297"/>
-          <cell r="B297"/>
-        </row>
-        <row r="298">
-          <cell r="A298"/>
-          <cell r="B298"/>
-        </row>
-        <row r="299">
-          <cell r="A299"/>
-          <cell r="B299"/>
-        </row>
-        <row r="300">
-          <cell r="A300"/>
-          <cell r="B300"/>
-        </row>
-        <row r="301">
-          <cell r="A301"/>
-          <cell r="B301"/>
-        </row>
-        <row r="302">
-          <cell r="A302"/>
-          <cell r="B302"/>
-        </row>
-        <row r="303">
-          <cell r="A303"/>
-          <cell r="B303"/>
-        </row>
-        <row r="304">
-          <cell r="A304"/>
-          <cell r="B304"/>
-        </row>
-        <row r="305">
-          <cell r="A305"/>
-          <cell r="B305"/>
-        </row>
-        <row r="306">
-          <cell r="A306"/>
-          <cell r="B306"/>
-        </row>
-        <row r="307">
-          <cell r="A307"/>
-          <cell r="B307"/>
-        </row>
-        <row r="308">
-          <cell r="A308"/>
-          <cell r="B308"/>
-        </row>
-        <row r="309">
-          <cell r="A309"/>
-          <cell r="B309"/>
-        </row>
-        <row r="310">
-          <cell r="A310"/>
-          <cell r="B310"/>
-        </row>
-        <row r="311">
-          <cell r="A311"/>
-          <cell r="B311"/>
-        </row>
-        <row r="312">
-          <cell r="A312"/>
-          <cell r="B312"/>
-        </row>
-        <row r="313">
-          <cell r="A313"/>
-          <cell r="B313"/>
-        </row>
-        <row r="314">
-          <cell r="A314"/>
-          <cell r="B314"/>
-        </row>
-        <row r="315">
-          <cell r="A315"/>
-          <cell r="B315"/>
-        </row>
-        <row r="316">
-          <cell r="A316"/>
-          <cell r="B316"/>
-        </row>
-        <row r="317">
-          <cell r="A317"/>
-          <cell r="B317"/>
-        </row>
-        <row r="318">
-          <cell r="A318"/>
-          <cell r="B318"/>
-        </row>
-        <row r="319">
-          <cell r="A319"/>
-          <cell r="B319"/>
-        </row>
-        <row r="320">
-          <cell r="A320"/>
-          <cell r="B320"/>
-        </row>
-        <row r="321">
-          <cell r="A321"/>
-          <cell r="B321"/>
-        </row>
-        <row r="322">
-          <cell r="A322"/>
-          <cell r="B322"/>
-        </row>
-        <row r="323">
-          <cell r="A323"/>
-          <cell r="B323"/>
-        </row>
-        <row r="324">
-          <cell r="A324"/>
-          <cell r="B324"/>
-        </row>
-        <row r="325">
-          <cell r="A325"/>
-          <cell r="B325"/>
-        </row>
-        <row r="326">
-          <cell r="A326"/>
-          <cell r="B326"/>
-        </row>
-        <row r="327">
-          <cell r="A327"/>
-          <cell r="B327"/>
-        </row>
-        <row r="328">
-          <cell r="A328"/>
-          <cell r="B328"/>
-        </row>
-        <row r="329">
-          <cell r="A329"/>
-          <cell r="B329"/>
-        </row>
-        <row r="330">
-          <cell r="A330"/>
-          <cell r="B330"/>
-        </row>
-        <row r="331">
-          <cell r="A331"/>
-          <cell r="B331"/>
-        </row>
-        <row r="332">
-          <cell r="A332"/>
-          <cell r="B332"/>
-        </row>
-        <row r="333">
-          <cell r="A333"/>
-          <cell r="B333"/>
-        </row>
-        <row r="334">
-          <cell r="A334"/>
-          <cell r="B334"/>
-        </row>
-        <row r="335">
-          <cell r="A335"/>
-          <cell r="B335"/>
-        </row>
-        <row r="336">
-          <cell r="A336"/>
-          <cell r="B336"/>
-        </row>
-        <row r="337">
-          <cell r="A337"/>
-          <cell r="B337"/>
-        </row>
-        <row r="338">
-          <cell r="A338"/>
-          <cell r="B338"/>
-        </row>
-        <row r="339">
-          <cell r="A339"/>
-          <cell r="B339"/>
-        </row>
-        <row r="340">
-          <cell r="A340"/>
-          <cell r="B340"/>
-        </row>
-        <row r="341">
-          <cell r="A341"/>
-          <cell r="B341"/>
-        </row>
-        <row r="342">
-          <cell r="A342"/>
-          <cell r="B342"/>
-        </row>
-        <row r="343">
-          <cell r="A343"/>
-          <cell r="B343"/>
-        </row>
-        <row r="344">
-          <cell r="A344"/>
-          <cell r="B344"/>
-        </row>
-        <row r="345">
-          <cell r="A345"/>
-          <cell r="B345"/>
-        </row>
-        <row r="346">
-          <cell r="A346"/>
-          <cell r="B346"/>
-        </row>
-        <row r="347">
-          <cell r="A347"/>
-          <cell r="B347"/>
-        </row>
-        <row r="348">
-          <cell r="A348"/>
-          <cell r="B348"/>
-        </row>
-        <row r="349">
-          <cell r="A349"/>
-          <cell r="B349"/>
-        </row>
-        <row r="350">
-          <cell r="A350"/>
-          <cell r="B350"/>
-        </row>
-        <row r="351">
-          <cell r="A351"/>
-          <cell r="B351"/>
-        </row>
-        <row r="352">
-          <cell r="A352"/>
-          <cell r="B352"/>
-        </row>
-        <row r="353">
-          <cell r="A353"/>
-          <cell r="B353"/>
-        </row>
-        <row r="354">
-          <cell r="A354"/>
-          <cell r="B354"/>
-        </row>
-        <row r="355">
-          <cell r="A355"/>
-          <cell r="B355"/>
-        </row>
-        <row r="356">
-          <cell r="A356"/>
-          <cell r="B356"/>
-        </row>
-        <row r="357">
-          <cell r="A357"/>
-          <cell r="B357"/>
-        </row>
-        <row r="358">
-          <cell r="A358"/>
-          <cell r="B358"/>
-        </row>
-        <row r="359">
-          <cell r="A359"/>
-          <cell r="B359"/>
-        </row>
-        <row r="360">
-          <cell r="A360"/>
-          <cell r="B360"/>
-        </row>
-        <row r="361">
-          <cell r="A361"/>
-          <cell r="B361"/>
-        </row>
-        <row r="362">
-          <cell r="A362"/>
-          <cell r="B362"/>
-        </row>
-        <row r="363">
-          <cell r="A363"/>
-          <cell r="B363"/>
-        </row>
-        <row r="364">
-          <cell r="A364"/>
-          <cell r="B364"/>
-        </row>
-        <row r="365">
-          <cell r="A365"/>
-          <cell r="B365"/>
-        </row>
-        <row r="366">
-          <cell r="A366"/>
-          <cell r="B366"/>
-        </row>
-        <row r="367">
-          <cell r="A367"/>
-          <cell r="B367"/>
-        </row>
-        <row r="368">
-          <cell r="A368"/>
-          <cell r="B368"/>
-        </row>
-        <row r="369">
-          <cell r="A369"/>
-          <cell r="B369"/>
-        </row>
-        <row r="370">
-          <cell r="A370"/>
-          <cell r="B370"/>
-        </row>
-        <row r="371">
-          <cell r="A371"/>
-          <cell r="B371"/>
-        </row>
-        <row r="372">
-          <cell r="A372"/>
-          <cell r="B372"/>
-        </row>
-        <row r="373">
-          <cell r="A373"/>
-          <cell r="B373"/>
-        </row>
-        <row r="374">
-          <cell r="A374"/>
-          <cell r="B374"/>
-        </row>
-        <row r="375">
-          <cell r="A375"/>
-          <cell r="B375"/>
-        </row>
-        <row r="376">
-          <cell r="A376"/>
-          <cell r="B376"/>
-        </row>
-        <row r="377">
-          <cell r="A377"/>
-          <cell r="B377"/>
-        </row>
-        <row r="378">
-          <cell r="A378"/>
-          <cell r="B378"/>
-        </row>
-        <row r="379">
-          <cell r="A379"/>
-          <cell r="B379"/>
-        </row>
-        <row r="380">
-          <cell r="A380"/>
-          <cell r="B380"/>
-        </row>
-        <row r="381">
-          <cell r="A381"/>
-          <cell r="B381"/>
-        </row>
-        <row r="382">
-          <cell r="A382"/>
-          <cell r="B382"/>
-        </row>
-        <row r="383">
-          <cell r="A383"/>
-          <cell r="B383"/>
-        </row>
-        <row r="384">
-          <cell r="A384"/>
-          <cell r="B384"/>
-        </row>
-        <row r="385">
-          <cell r="A385"/>
-          <cell r="B385"/>
-        </row>
-        <row r="386">
-          <cell r="A386"/>
-          <cell r="B386"/>
-        </row>
-        <row r="387">
-          <cell r="A387"/>
-          <cell r="B387"/>
-        </row>
-        <row r="388">
-          <cell r="A388"/>
-          <cell r="B388"/>
-        </row>
-        <row r="389">
-          <cell r="A389"/>
-          <cell r="B389"/>
-        </row>
-        <row r="390">
-          <cell r="A390"/>
-          <cell r="B390"/>
-        </row>
-        <row r="391">
-          <cell r="A391"/>
-          <cell r="B391"/>
-        </row>
-        <row r="392">
-          <cell r="A392"/>
-          <cell r="B392"/>
-        </row>
-        <row r="393">
-          <cell r="A393"/>
-          <cell r="B393"/>
-        </row>
-        <row r="394">
-          <cell r="A394"/>
-          <cell r="B394"/>
-        </row>
-        <row r="395">
-          <cell r="A395"/>
-          <cell r="B395"/>
-        </row>
-        <row r="396">
-          <cell r="A396"/>
-          <cell r="B396"/>
-        </row>
-        <row r="397">
-          <cell r="A397"/>
-          <cell r="B397"/>
-        </row>
-        <row r="398">
-          <cell r="A398"/>
-          <cell r="B398"/>
-        </row>
-        <row r="399">
-          <cell r="A399"/>
-          <cell r="B399"/>
-        </row>
-        <row r="400">
-          <cell r="A400"/>
-          <cell r="B400"/>
-        </row>
-        <row r="401">
-          <cell r="A401"/>
-          <cell r="B401"/>
-        </row>
-        <row r="402">
-          <cell r="A402"/>
-          <cell r="B402"/>
-        </row>
-        <row r="403">
-          <cell r="A403"/>
-          <cell r="B403"/>
-        </row>
-        <row r="404">
-          <cell r="A404"/>
-          <cell r="B404"/>
-        </row>
-        <row r="405">
-          <cell r="A405"/>
-          <cell r="B405"/>
-        </row>
-        <row r="406">
-          <cell r="A406"/>
-          <cell r="B406"/>
-        </row>
-        <row r="407">
-          <cell r="A407"/>
-          <cell r="B407"/>
-        </row>
-        <row r="408">
-          <cell r="A408"/>
-          <cell r="B408"/>
-        </row>
-        <row r="409">
-          <cell r="A409"/>
-          <cell r="B409"/>
-        </row>
-        <row r="410">
-          <cell r="A410"/>
-          <cell r="B410"/>
-        </row>
-        <row r="411">
-          <cell r="A411"/>
-          <cell r="B411"/>
-        </row>
-        <row r="412">
-          <cell r="A412"/>
-          <cell r="B412"/>
-        </row>
-        <row r="413">
-          <cell r="A413"/>
-          <cell r="B413"/>
-        </row>
-        <row r="414">
-          <cell r="A414"/>
-          <cell r="B414"/>
-        </row>
-        <row r="415">
-          <cell r="A415"/>
-          <cell r="B415"/>
-        </row>
-        <row r="416">
-          <cell r="A416"/>
-          <cell r="B416"/>
-        </row>
-        <row r="417">
-          <cell r="A417"/>
-          <cell r="B417"/>
-        </row>
-        <row r="418">
-          <cell r="A418"/>
-          <cell r="B418"/>
-        </row>
-        <row r="419">
-          <cell r="A419"/>
-          <cell r="B419"/>
-        </row>
-        <row r="420">
-          <cell r="A420"/>
-          <cell r="B420"/>
-        </row>
-        <row r="421">
-          <cell r="A421"/>
-          <cell r="B421"/>
-        </row>
-        <row r="422">
-          <cell r="A422"/>
-          <cell r="B422"/>
-        </row>
-        <row r="423">
-          <cell r="A423"/>
-          <cell r="B423"/>
-        </row>
-        <row r="424">
-          <cell r="A424"/>
-          <cell r="B424"/>
-        </row>
-        <row r="425">
-          <cell r="A425"/>
-          <cell r="B425"/>
-        </row>
-        <row r="426">
-          <cell r="A426"/>
-          <cell r="B426"/>
-        </row>
-        <row r="427">
-          <cell r="A427"/>
-          <cell r="B427"/>
-        </row>
-        <row r="428">
-          <cell r="A428"/>
-          <cell r="B428"/>
-        </row>
-        <row r="429">
-          <cell r="A429"/>
-          <cell r="B429"/>
-        </row>
-        <row r="430">
-          <cell r="A430"/>
-          <cell r="B430"/>
-        </row>
-        <row r="431">
-          <cell r="A431"/>
-          <cell r="B431"/>
-        </row>
-        <row r="432">
-          <cell r="A432"/>
-          <cell r="B432"/>
-        </row>
-        <row r="433">
-          <cell r="A433"/>
-          <cell r="B433"/>
-        </row>
-        <row r="434">
-          <cell r="A434"/>
-          <cell r="B434"/>
-        </row>
-        <row r="435">
-          <cell r="A435"/>
-          <cell r="B435"/>
-        </row>
-        <row r="436">
-          <cell r="A436"/>
-          <cell r="B436"/>
-        </row>
-        <row r="437">
-          <cell r="A437"/>
-          <cell r="B437"/>
-        </row>
-        <row r="438">
-          <cell r="A438"/>
-          <cell r="B438"/>
-        </row>
-        <row r="439">
-          <cell r="A439"/>
-          <cell r="B439"/>
-        </row>
-        <row r="440">
-          <cell r="A440"/>
-          <cell r="B440"/>
-        </row>
-        <row r="441">
-          <cell r="A441"/>
-          <cell r="B441"/>
-        </row>
-        <row r="442">
-          <cell r="A442"/>
-          <cell r="B442"/>
-        </row>
-        <row r="443">
-          <cell r="A443"/>
-          <cell r="B443"/>
-        </row>
-        <row r="444">
-          <cell r="A444"/>
-          <cell r="B444"/>
-        </row>
-        <row r="445">
-          <cell r="A445"/>
-          <cell r="B445"/>
-        </row>
-        <row r="446">
-          <cell r="A446"/>
-          <cell r="B446"/>
-        </row>
-        <row r="447">
-          <cell r="A447"/>
-          <cell r="B447"/>
-        </row>
-        <row r="448">
-          <cell r="A448"/>
-          <cell r="B448"/>
-        </row>
-        <row r="449">
-          <cell r="A449"/>
-          <cell r="B449"/>
-        </row>
-        <row r="450">
-          <cell r="A450"/>
-          <cell r="B450"/>
-        </row>
-        <row r="451">
-          <cell r="A451"/>
-          <cell r="B451"/>
-        </row>
-        <row r="452">
-          <cell r="A452"/>
-          <cell r="B452"/>
-        </row>
-        <row r="453">
-          <cell r="A453"/>
-          <cell r="B453"/>
-        </row>
-        <row r="454">
-          <cell r="A454"/>
-          <cell r="B454"/>
-        </row>
-        <row r="455">
-          <cell r="A455"/>
-          <cell r="B455"/>
-        </row>
-        <row r="456">
-          <cell r="A456"/>
-          <cell r="B456"/>
-        </row>
-        <row r="457">
-          <cell r="A457"/>
-          <cell r="B457"/>
-        </row>
-        <row r="458">
-          <cell r="A458"/>
-          <cell r="B458"/>
-        </row>
-        <row r="459">
-          <cell r="A459"/>
-          <cell r="B459"/>
-        </row>
-        <row r="460">
-          <cell r="A460"/>
-          <cell r="B460"/>
-        </row>
-        <row r="461">
-          <cell r="A461"/>
-          <cell r="B461"/>
-        </row>
-        <row r="462">
-          <cell r="A462"/>
-          <cell r="B462"/>
-        </row>
-        <row r="463">
-          <cell r="A463"/>
-          <cell r="B463"/>
-        </row>
-        <row r="464">
-          <cell r="A464"/>
-          <cell r="B464"/>
-        </row>
-        <row r="465">
-          <cell r="A465"/>
-          <cell r="B465"/>
-        </row>
-        <row r="466">
-          <cell r="A466"/>
-          <cell r="B466"/>
-        </row>
-        <row r="467">
-          <cell r="A467"/>
-          <cell r="B467"/>
-        </row>
-        <row r="468">
-          <cell r="A468"/>
-          <cell r="B468"/>
-        </row>
-        <row r="469">
-          <cell r="A469"/>
-          <cell r="B469"/>
-        </row>
-        <row r="470">
-          <cell r="A470"/>
-          <cell r="B470"/>
-        </row>
-        <row r="471">
-          <cell r="A471"/>
-          <cell r="B471"/>
-        </row>
-        <row r="472">
-          <cell r="A472"/>
-          <cell r="B472"/>
-        </row>
-        <row r="473">
-          <cell r="A473"/>
-          <cell r="B473"/>
-        </row>
-        <row r="474">
-          <cell r="A474"/>
-          <cell r="B474"/>
-        </row>
-        <row r="475">
-          <cell r="A475"/>
-          <cell r="B475"/>
-        </row>
-        <row r="476">
-          <cell r="A476"/>
-          <cell r="B476"/>
-        </row>
-        <row r="477">
-          <cell r="A477"/>
-          <cell r="B477"/>
-        </row>
-        <row r="478">
-          <cell r="A478"/>
-          <cell r="B478"/>
-        </row>
-        <row r="479">
-          <cell r="A479"/>
-          <cell r="B479"/>
-        </row>
-        <row r="480">
-          <cell r="A480"/>
-          <cell r="B480"/>
-        </row>
-        <row r="481">
-          <cell r="A481"/>
-          <cell r="B481"/>
-        </row>
-        <row r="482">
-          <cell r="A482"/>
-          <cell r="B482"/>
-        </row>
-        <row r="483">
-          <cell r="A483"/>
-          <cell r="B483"/>
-        </row>
-        <row r="484">
-          <cell r="A484"/>
-          <cell r="B484"/>
-        </row>
-        <row r="485">
-          <cell r="A485"/>
-          <cell r="B485"/>
-        </row>
-        <row r="486">
-          <cell r="A486"/>
-          <cell r="B486"/>
-        </row>
-        <row r="487">
-          <cell r="A487"/>
-          <cell r="B487"/>
-        </row>
-        <row r="488">
-          <cell r="A488"/>
-          <cell r="B488"/>
-        </row>
-        <row r="489">
-          <cell r="A489"/>
-          <cell r="B489"/>
-        </row>
-        <row r="490">
-          <cell r="A490"/>
-          <cell r="B490"/>
-        </row>
-        <row r="491">
-          <cell r="A491"/>
-          <cell r="B491"/>
-        </row>
-        <row r="492">
-          <cell r="A492"/>
-          <cell r="B492"/>
-        </row>
-        <row r="493">
-          <cell r="A493"/>
-          <cell r="B493"/>
-        </row>
-        <row r="494">
-          <cell r="A494"/>
-          <cell r="B494"/>
-        </row>
-        <row r="495">
-          <cell r="A495"/>
-          <cell r="B495"/>
-        </row>
-        <row r="496">
-          <cell r="A496"/>
-          <cell r="B496"/>
-        </row>
-        <row r="497">
-          <cell r="A497"/>
-          <cell r="B497"/>
-        </row>
-        <row r="498">
-          <cell r="A498"/>
-          <cell r="B498"/>
-        </row>
-        <row r="499">
-          <cell r="A499"/>
-          <cell r="B499"/>
-        </row>
-        <row r="500">
-          <cell r="A500"/>
-          <cell r="B500"/>
-        </row>
-        <row r="501">
-          <cell r="A501"/>
-          <cell r="B501"/>
-        </row>
-        <row r="502">
-          <cell r="A502"/>
-          <cell r="B502"/>
-        </row>
-        <row r="503">
-          <cell r="A503"/>
-          <cell r="B503"/>
-        </row>
-        <row r="504">
-          <cell r="A504"/>
-          <cell r="B504"/>
-        </row>
-        <row r="505">
-          <cell r="A505"/>
-          <cell r="B505"/>
-        </row>
-        <row r="506">
-          <cell r="A506"/>
-          <cell r="B506"/>
-        </row>
-        <row r="507">
-          <cell r="A507"/>
-          <cell r="B507"/>
-        </row>
-        <row r="508">
-          <cell r="A508"/>
-          <cell r="B508"/>
-        </row>
-        <row r="509">
-          <cell r="A509"/>
-          <cell r="B509"/>
-        </row>
-        <row r="510">
-          <cell r="A510"/>
-          <cell r="B510"/>
-        </row>
-        <row r="511">
-          <cell r="A511"/>
-          <cell r="B511"/>
-        </row>
-        <row r="512">
-          <cell r="A512"/>
-          <cell r="B512"/>
-        </row>
-        <row r="513">
-          <cell r="A513"/>
-          <cell r="B513"/>
-        </row>
-        <row r="514">
-          <cell r="A514"/>
-          <cell r="B514"/>
-        </row>
-        <row r="515">
-          <cell r="A515"/>
-          <cell r="B515"/>
-        </row>
-        <row r="516">
-          <cell r="A516"/>
-          <cell r="B516"/>
-        </row>
-        <row r="517">
-          <cell r="A517"/>
-          <cell r="B517"/>
-        </row>
-        <row r="518">
-          <cell r="A518"/>
-          <cell r="B518"/>
-        </row>
-        <row r="519">
-          <cell r="A519"/>
-          <cell r="B519"/>
-        </row>
-        <row r="520">
-          <cell r="A520"/>
-          <cell r="B520"/>
-        </row>
-        <row r="521">
-          <cell r="A521"/>
-          <cell r="B521"/>
-        </row>
-        <row r="522">
-          <cell r="A522"/>
-          <cell r="B522"/>
-        </row>
-        <row r="523">
-          <cell r="A523"/>
-          <cell r="B523"/>
-        </row>
-        <row r="524">
-          <cell r="A524"/>
-          <cell r="B524"/>
-        </row>
-        <row r="525">
-          <cell r="A525"/>
-          <cell r="B525"/>
-        </row>
-        <row r="526">
-          <cell r="A526"/>
-          <cell r="B526"/>
-        </row>
-        <row r="527">
-          <cell r="A527"/>
-          <cell r="B527"/>
-        </row>
-        <row r="528">
-          <cell r="A528"/>
-          <cell r="B528"/>
-        </row>
-        <row r="529">
-          <cell r="A529"/>
-          <cell r="B529"/>
-        </row>
-        <row r="530">
-          <cell r="A530"/>
-          <cell r="B530"/>
-        </row>
-        <row r="531">
-          <cell r="A531"/>
-          <cell r="B531"/>
-        </row>
-        <row r="532">
-          <cell r="A532"/>
-          <cell r="B532"/>
-        </row>
-        <row r="533">
-          <cell r="A533"/>
-          <cell r="B533"/>
-        </row>
-        <row r="534">
-          <cell r="A534"/>
-          <cell r="B534"/>
-        </row>
-        <row r="535">
-          <cell r="A535"/>
-          <cell r="B535"/>
-        </row>
-        <row r="536">
-          <cell r="A536"/>
-          <cell r="B536"/>
-        </row>
-        <row r="537">
-          <cell r="A537"/>
-          <cell r="B537"/>
-        </row>
-        <row r="538">
-          <cell r="A538"/>
-          <cell r="B538"/>
-        </row>
-        <row r="539">
-          <cell r="A539"/>
-          <cell r="B539"/>
-        </row>
-        <row r="540">
-          <cell r="A540"/>
-          <cell r="B540"/>
-        </row>
-        <row r="541">
-          <cell r="A541"/>
-          <cell r="B541"/>
-        </row>
-        <row r="542">
-          <cell r="A542"/>
-          <cell r="B542"/>
-        </row>
-        <row r="543">
-          <cell r="A543"/>
-          <cell r="B543"/>
-        </row>
-        <row r="544">
-          <cell r="A544"/>
-          <cell r="B544"/>
-        </row>
-        <row r="545">
-          <cell r="A545"/>
-          <cell r="B545"/>
-        </row>
-        <row r="546">
-          <cell r="A546"/>
-          <cell r="B546"/>
-        </row>
-        <row r="547">
-          <cell r="A547"/>
-          <cell r="B547"/>
-        </row>
-        <row r="548">
-          <cell r="A548"/>
-          <cell r="B548"/>
-        </row>
-        <row r="549">
-          <cell r="A549"/>
-          <cell r="B549"/>
-        </row>
-        <row r="550">
-          <cell r="A550"/>
-          <cell r="B550"/>
-        </row>
-        <row r="551">
-          <cell r="A551"/>
-          <cell r="B551"/>
-        </row>
-        <row r="552">
-          <cell r="A552"/>
-          <cell r="B552"/>
-        </row>
-        <row r="553">
-          <cell r="A553"/>
-          <cell r="B553"/>
-        </row>
-        <row r="554">
-          <cell r="A554"/>
-          <cell r="B554"/>
-        </row>
-        <row r="555">
-          <cell r="A555"/>
-          <cell r="B555"/>
-        </row>
-        <row r="556">
-          <cell r="A556"/>
-          <cell r="B556"/>
-        </row>
-        <row r="557">
-          <cell r="A557"/>
-          <cell r="B557"/>
-        </row>
-        <row r="558">
-          <cell r="A558"/>
-          <cell r="B558"/>
-        </row>
-        <row r="559">
-          <cell r="A559"/>
-          <cell r="B559"/>
-        </row>
-        <row r="560">
-          <cell r="A560"/>
-          <cell r="B560"/>
-        </row>
-        <row r="561">
-          <cell r="A561"/>
-          <cell r="B561"/>
-        </row>
-        <row r="562">
-          <cell r="A562"/>
-          <cell r="B562"/>
-        </row>
-        <row r="563">
-          <cell r="A563"/>
-          <cell r="B563"/>
-        </row>
-        <row r="564">
-          <cell r="A564"/>
-          <cell r="B564"/>
-        </row>
-        <row r="565">
-          <cell r="A565"/>
-          <cell r="B565"/>
-        </row>
-        <row r="566">
-          <cell r="A566"/>
-          <cell r="B566"/>
-        </row>
-        <row r="567">
-          <cell r="A567"/>
-          <cell r="B567"/>
-        </row>
-        <row r="568">
-          <cell r="A568"/>
-          <cell r="B568"/>
-        </row>
-        <row r="569">
-          <cell r="A569"/>
-          <cell r="B569"/>
-        </row>
-        <row r="570">
-          <cell r="A570"/>
-          <cell r="B570"/>
-        </row>
-        <row r="571">
-          <cell r="A571"/>
-          <cell r="B571"/>
-        </row>
-        <row r="572">
-          <cell r="A572"/>
-          <cell r="B572"/>
-        </row>
-        <row r="573">
-          <cell r="A573"/>
-          <cell r="B573"/>
-        </row>
-        <row r="574">
-          <cell r="A574"/>
-          <cell r="B574"/>
-        </row>
-        <row r="575">
-          <cell r="A575"/>
-          <cell r="B575"/>
-        </row>
-        <row r="576">
-          <cell r="A576"/>
-          <cell r="B576"/>
-        </row>
-        <row r="577">
-          <cell r="A577"/>
-          <cell r="B577"/>
-        </row>
-        <row r="578">
-          <cell r="A578"/>
-          <cell r="B578"/>
-        </row>
-        <row r="579">
-          <cell r="A579"/>
-          <cell r="B579"/>
-        </row>
-        <row r="580">
-          <cell r="A580"/>
-          <cell r="B580"/>
-        </row>
-        <row r="581">
-          <cell r="A581"/>
-          <cell r="B581"/>
-        </row>
-        <row r="582">
-          <cell r="A582"/>
-          <cell r="B582"/>
-        </row>
-        <row r="583">
-          <cell r="A583"/>
-          <cell r="B583"/>
-        </row>
-        <row r="584">
-          <cell r="A584"/>
-          <cell r="B584"/>
-        </row>
-        <row r="585">
-          <cell r="A585"/>
-          <cell r="B585"/>
-        </row>
-        <row r="586">
-          <cell r="A586"/>
-          <cell r="B586"/>
-        </row>
-        <row r="587">
-          <cell r="A587"/>
-          <cell r="B587"/>
-        </row>
-        <row r="588">
-          <cell r="A588"/>
-          <cell r="B588"/>
-        </row>
-        <row r="589">
-          <cell r="A589"/>
-          <cell r="B589"/>
-        </row>
-        <row r="590">
-          <cell r="A590"/>
-          <cell r="B590"/>
-        </row>
-        <row r="591">
-          <cell r="A591"/>
-          <cell r="B591"/>
-        </row>
-        <row r="592">
-          <cell r="A592"/>
-          <cell r="B592"/>
-        </row>
-        <row r="593">
-          <cell r="A593"/>
-          <cell r="B593"/>
-        </row>
-        <row r="594">
-          <cell r="A594"/>
-          <cell r="B594"/>
-        </row>
-        <row r="595">
-          <cell r="A595"/>
-          <cell r="B595"/>
-        </row>
-        <row r="596">
-          <cell r="A596"/>
-          <cell r="B596"/>
-        </row>
-        <row r="597">
-          <cell r="A597"/>
-          <cell r="B597"/>
-        </row>
-        <row r="598">
-          <cell r="A598"/>
-          <cell r="B598"/>
-        </row>
-        <row r="599">
-          <cell r="A599"/>
-          <cell r="B599"/>
-        </row>
-        <row r="600">
-          <cell r="A600"/>
-          <cell r="B600"/>
-        </row>
-        <row r="601">
-          <cell r="A601"/>
-          <cell r="B601"/>
-        </row>
-        <row r="602">
-          <cell r="A602"/>
-          <cell r="B602"/>
-        </row>
-        <row r="603">
-          <cell r="A603"/>
-          <cell r="B603"/>
-        </row>
-        <row r="604">
-          <cell r="A604"/>
-          <cell r="B604"/>
-        </row>
-        <row r="605">
-          <cell r="A605"/>
-          <cell r="B605"/>
-        </row>
-        <row r="606">
-          <cell r="A606"/>
-          <cell r="B606"/>
-        </row>
-        <row r="607">
-          <cell r="A607"/>
-          <cell r="B607"/>
-        </row>
-        <row r="608">
-          <cell r="A608"/>
-          <cell r="B608"/>
-        </row>
-        <row r="609">
-          <cell r="A609"/>
-          <cell r="B609"/>
-        </row>
-        <row r="610">
-          <cell r="A610"/>
-          <cell r="B610"/>
-        </row>
-        <row r="611">
-          <cell r="A611"/>
-          <cell r="B611"/>
-        </row>
-        <row r="612">
-          <cell r="A612"/>
-          <cell r="B612"/>
-        </row>
-        <row r="613">
-          <cell r="A613"/>
-          <cell r="B613"/>
-        </row>
-        <row r="614">
-          <cell r="A614"/>
-          <cell r="B614"/>
-        </row>
-        <row r="615">
-          <cell r="A615"/>
-          <cell r="B615"/>
-        </row>
-        <row r="616">
-          <cell r="A616"/>
-          <cell r="B616"/>
-        </row>
-        <row r="617">
-          <cell r="A617"/>
-          <cell r="B617"/>
-        </row>
-        <row r="618">
-          <cell r="A618"/>
-          <cell r="B618"/>
-        </row>
-        <row r="619">
-          <cell r="A619"/>
-          <cell r="B619"/>
-        </row>
-        <row r="620">
-          <cell r="A620"/>
-          <cell r="B620"/>
-        </row>
-        <row r="621">
-          <cell r="A621"/>
-          <cell r="B621"/>
-        </row>
-        <row r="622">
-          <cell r="A622"/>
-          <cell r="B622"/>
-        </row>
-        <row r="623">
-          <cell r="A623"/>
-          <cell r="B623"/>
-        </row>
-        <row r="624">
-          <cell r="A624"/>
-          <cell r="B624"/>
-        </row>
-        <row r="625">
-          <cell r="A625"/>
-          <cell r="B625"/>
-        </row>
-        <row r="626">
-          <cell r="A626"/>
-          <cell r="B626"/>
-        </row>
-        <row r="627">
-          <cell r="A627"/>
-          <cell r="B627"/>
-        </row>
-        <row r="628">
-          <cell r="A628"/>
-          <cell r="B628"/>
-        </row>
-        <row r="629">
-          <cell r="A629"/>
-          <cell r="B629"/>
-        </row>
-        <row r="630">
-          <cell r="A630"/>
-          <cell r="B630"/>
-        </row>
-        <row r="631">
-          <cell r="A631"/>
-          <cell r="B631"/>
-        </row>
-        <row r="632">
-          <cell r="A632"/>
-          <cell r="B632"/>
-        </row>
-        <row r="633">
-          <cell r="A633"/>
-          <cell r="B633"/>
-        </row>
-        <row r="634">
-          <cell r="A634"/>
-          <cell r="B634"/>
-        </row>
-        <row r="635">
-          <cell r="A635"/>
-          <cell r="B635"/>
-        </row>
-        <row r="636">
-          <cell r="A636"/>
-          <cell r="B636"/>
-        </row>
-        <row r="637">
-          <cell r="A637"/>
-          <cell r="B637"/>
-        </row>
-        <row r="638">
-          <cell r="A638"/>
-          <cell r="B638"/>
-        </row>
-        <row r="639">
-          <cell r="A639"/>
-          <cell r="B639"/>
-        </row>
-        <row r="640">
-          <cell r="A640"/>
-          <cell r="B640"/>
-        </row>
-        <row r="641">
-          <cell r="A641"/>
-          <cell r="B641"/>
-        </row>
-        <row r="642">
-          <cell r="A642"/>
-          <cell r="B642"/>
-        </row>
-        <row r="643">
-          <cell r="A643"/>
-          <cell r="B643"/>
-        </row>
-        <row r="644">
-          <cell r="A644"/>
-          <cell r="B644"/>
-        </row>
-        <row r="645">
-          <cell r="A645"/>
-          <cell r="B645"/>
-        </row>
-        <row r="646">
-          <cell r="A646"/>
-          <cell r="B646"/>
-        </row>
-        <row r="647">
-          <cell r="A647"/>
-          <cell r="B647"/>
-        </row>
-        <row r="648">
-          <cell r="A648"/>
-          <cell r="B648"/>
-        </row>
-        <row r="649">
-          <cell r="A649"/>
-          <cell r="B649"/>
-        </row>
-        <row r="650">
-          <cell r="A650"/>
-          <cell r="B650"/>
-        </row>
-        <row r="651">
-          <cell r="A651"/>
-          <cell r="B651"/>
-        </row>
-        <row r="652">
-          <cell r="A652"/>
-          <cell r="B652"/>
-        </row>
-        <row r="653">
-          <cell r="A653"/>
-          <cell r="B653"/>
-        </row>
-        <row r="654">
-          <cell r="A654"/>
-          <cell r="B654"/>
-        </row>
-        <row r="655">
-          <cell r="A655"/>
-          <cell r="B655"/>
-        </row>
-        <row r="656">
-          <cell r="A656"/>
-          <cell r="B656"/>
-        </row>
-        <row r="657">
-          <cell r="A657"/>
-          <cell r="B657"/>
-        </row>
-        <row r="658">
-          <cell r="A658"/>
-          <cell r="B658"/>
-        </row>
-        <row r="659">
-          <cell r="A659"/>
-          <cell r="B659"/>
-        </row>
-        <row r="660">
-          <cell r="A660"/>
-          <cell r="B660"/>
-        </row>
-        <row r="661">
-          <cell r="A661"/>
-          <cell r="B661"/>
-        </row>
-        <row r="662">
-          <cell r="A662"/>
-          <cell r="B662"/>
-        </row>
-        <row r="663">
-          <cell r="A663"/>
-          <cell r="B663"/>
-        </row>
-        <row r="664">
-          <cell r="A664"/>
-          <cell r="B664"/>
-        </row>
-        <row r="665">
-          <cell r="A665"/>
-          <cell r="B665"/>
-        </row>
-        <row r="666">
-          <cell r="A666"/>
-          <cell r="B666"/>
-        </row>
-        <row r="667">
-          <cell r="A667"/>
-          <cell r="B667"/>
-        </row>
-        <row r="668">
-          <cell r="A668"/>
-          <cell r="B668"/>
-        </row>
-        <row r="669">
-          <cell r="A669"/>
-          <cell r="B669"/>
-        </row>
-        <row r="670">
-          <cell r="A670"/>
-          <cell r="B670"/>
-        </row>
-        <row r="671">
-          <cell r="A671"/>
-          <cell r="B671"/>
-        </row>
-        <row r="672">
-          <cell r="A672"/>
-          <cell r="B672"/>
-        </row>
-        <row r="673">
-          <cell r="A673"/>
-          <cell r="B673"/>
-        </row>
-        <row r="674">
-          <cell r="A674"/>
-          <cell r="B674"/>
-        </row>
-        <row r="675">
-          <cell r="A675"/>
-          <cell r="B675"/>
-        </row>
-        <row r="676">
-          <cell r="A676"/>
-          <cell r="B676"/>
-        </row>
-        <row r="677">
-          <cell r="A677"/>
-          <cell r="B677"/>
-        </row>
-        <row r="678">
-          <cell r="A678"/>
-          <cell r="B678"/>
         </row>
       </sheetData>
       <sheetData sheetId="8">
@@ -10415,9 +8024,7 @@
           </cell>
         </row>
         <row r="197">
-          <cell r="A197" t="str">
-            <v/>
-          </cell>
+          <cell r="A197"/>
         </row>
       </sheetData>
       <sheetData sheetId="9"/>
@@ -11919,7 +9526,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11942,7 +9548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -11956,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>114</v>
       </c>
@@ -11970,7 +9576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -11984,7 +9590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -11998,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>114</v>
       </c>
@@ -12012,7 +9618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>114</v>
       </c>
@@ -12026,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -12040,7 +9646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -12054,7 +9660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -12068,7 +9674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -12082,7 +9688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -12096,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -12110,7 +9716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -12124,7 +9730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -12138,7 +9744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -12152,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -12166,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>114</v>
       </c>
@@ -12180,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -12194,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>114</v>
       </c>
@@ -12208,7 +9814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -12222,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -12236,7 +9842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>114</v>
       </c>
@@ -12250,7 +9856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>114</v>
       </c>
@@ -12264,7 +9870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -12278,7 +9884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>114</v>
       </c>
@@ -12292,7 +9898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -12306,7 +9912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -12320,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>114</v>
       </c>
@@ -12334,7 +9940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -12348,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -12362,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>114</v>
       </c>
@@ -12376,7 +9982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -12390,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -12404,7 +10010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -12418,7 +10024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>114</v>
       </c>
@@ -12432,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>114</v>
       </c>
@@ -12446,7 +10052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>114</v>
       </c>
@@ -12460,7 +10066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -12474,7 +10080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -12488,7 +10094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>114</v>
       </c>
@@ -12502,7 +10108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -12516,7 +10122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>114</v>
       </c>
@@ -12530,7 +10136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -12544,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -12558,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -12572,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>114</v>
       </c>
@@ -12586,7 +10192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -12600,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>114</v>
       </c>
@@ -12698,7 +10304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>114</v>
       </c>
@@ -12712,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -12726,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -12740,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -12754,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -12768,7 +10374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>114</v>
       </c>
@@ -12782,7 +10388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -12796,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>114</v>
       </c>
@@ -12810,7 +10416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>114</v>
       </c>
@@ -12824,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>114</v>
       </c>
@@ -12838,7 +10444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>114</v>
       </c>
@@ -12852,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -12866,7 +10472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -12880,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -12894,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>114</v>
       </c>
@@ -12908,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>114</v>
       </c>
@@ -12922,7 +10528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -12936,7 +10542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -12950,7 +10556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>114</v>
       </c>
@@ -12964,7 +10570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>114</v>
       </c>
@@ -12978,7 +10584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -12992,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>114</v>
       </c>
@@ -13006,7 +10612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>114</v>
       </c>
@@ -13020,7 +10626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -13034,7 +10640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>114</v>
       </c>
@@ -13048,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>114</v>
       </c>
@@ -13062,7 +10668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>114</v>
       </c>
@@ -13076,7 +10682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>114</v>
       </c>
@@ -13090,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>114</v>
       </c>
@@ -13104,7 +10710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>114</v>
       </c>
@@ -13118,7 +10724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>114</v>
       </c>
@@ -13132,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -13146,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>114</v>
       </c>
@@ -13160,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -13174,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -13188,7 +10794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -13202,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -13216,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -13230,7 +10836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -13244,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -13258,7 +10864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -13272,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -13286,7 +10892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -13300,7 +10906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -13314,7 +10920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -13328,7 +10934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -13342,7 +10948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -13356,7 +10962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -13370,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>114</v>
       </c>
@@ -13384,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>114</v>
       </c>
@@ -13398,7 +11004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>114</v>
       </c>
@@ -13412,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>114</v>
       </c>
@@ -13426,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>114</v>
       </c>
@@ -13440,7 +11046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -13454,7 +11060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>114</v>
       </c>
@@ -13468,7 +11074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -13482,7 +11088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -13496,7 +11102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>114</v>
       </c>
@@ -13510,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -13524,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -13538,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -13552,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -13566,7 +11172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -13580,7 +11186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -13594,7 +11200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>114</v>
       </c>
@@ -13608,7 +11214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:4" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>114</v>
       </c>
@@ -13623,13 +11229,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D121" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="educador/a infantil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D121" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -13639,12 +11239,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I1019" sqref="I1019"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="26.6328125" customWidth="1"/>
     <col min="3" max="3" width="37.08984375" customWidth="1"/>
   </cols>
@@ -13696,7 +11297,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>154</v>
       </c>
@@ -13740,7 +11341,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -13784,7 +11385,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>161</v>
       </c>
@@ -13828,7 +11429,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -13872,7 +11473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>161</v>
       </c>
@@ -13916,7 +11517,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>161</v>
       </c>
@@ -13960,7 +11561,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -14004,7 +11605,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -14048,7 +11649,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>174</v>
       </c>
@@ -14092,7 +11693,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>174</v>
       </c>
@@ -14136,7 +11737,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -14180,7 +11781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -14224,7 +11825,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>181</v>
       </c>
@@ -14268,7 +11869,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -14312,7 +11913,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -14356,7 +11957,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>155</v>
       </c>
@@ -14400,7 +12001,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>187</v>
       </c>
@@ -14444,7 +12045,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>187</v>
       </c>
@@ -14488,7 +12089,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>155</v>
       </c>
@@ -14532,7 +12133,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>193</v>
       </c>
@@ -14576,7 +12177,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>193</v>
       </c>
@@ -14620,7 +12221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>193</v>
       </c>
@@ -14664,7 +12265,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>193</v>
       </c>
@@ -14708,7 +12309,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>193</v>
       </c>
@@ -14752,7 +12353,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>193</v>
       </c>
@@ -14796,7 +12397,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>155</v>
       </c>
@@ -14840,7 +12441,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>201</v>
       </c>
@@ -14884,7 +12485,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>201</v>
       </c>
@@ -14928,7 +12529,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>201</v>
       </c>
@@ -14972,7 +12573,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>201</v>
       </c>
@@ -15016,7 +12617,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>201</v>
       </c>
@@ -15060,7 +12661,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -15104,7 +12705,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>208</v>
       </c>
@@ -15148,7 +12749,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>208</v>
       </c>
@@ -15192,7 +12793,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -15236,7 +12837,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>208</v>
       </c>
@@ -15280,7 +12881,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -15324,7 +12925,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>208</v>
       </c>
@@ -15368,7 +12969,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>208</v>
       </c>
@@ -15412,7 +13013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>208</v>
       </c>
@@ -15456,7 +13057,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>208</v>
       </c>
@@ -15500,7 +13101,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>208</v>
       </c>
@@ -15544,7 +13145,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>208</v>
       </c>
@@ -15588,7 +13189,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>208</v>
       </c>
@@ -15632,7 +13233,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -15702,7 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="J47" t="s">
         <v>170</v>
@@ -56667,9 +54268,11 @@
       <c r="K994" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="L994" t="e">
-        <f>VLOOKUP(A994,[1]Hoja2!$A$1:$B$378,2,FALSE)</f>
-        <v>#N/A</v>
+      <c r="L994" s="29" t="s">
+        <v>1631</v>
+      </c>
+      <c r="M994" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="995" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
@@ -57663,11 +55266,17 @@
         <filter val="RRHH"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="joroval@sklum.com"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <hyperlinks>
     <hyperlink ref="L841" r:id="rId1" xr:uid="{32E7161B-985F-4840-B6F2-92848F485DA4}"/>
     <hyperlink ref="L820" r:id="rId2" xr:uid="{56168700-18AA-4EFB-B301-DBDD1CAAFDD6}"/>
     <hyperlink ref="L821:L826" r:id="rId3" display="susana@sklum.com" xr:uid="{18567890-6F92-459D-A5FC-002A6438DCE0}"/>
+    <hyperlink ref="L994" r:id="rId4" xr:uid="{1B51E35F-BC93-4788-9B5C-1C4F6458A8DE}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -57675,14 +55284,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I285"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView zoomScale="88" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F264" sqref="F264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="33.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -57713,7 +55324,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -57739,7 +55350,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -57765,7 +55376,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -57791,7 +55402,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -57817,7 +55428,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>115</v>
       </c>
@@ -57843,7 +55454,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>115</v>
       </c>
@@ -57869,7 +55480,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>115</v>
       </c>
@@ -57895,7 +55506,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -57921,7 +55532,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>115</v>
       </c>
@@ -57947,7 +55558,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>115</v>
       </c>
@@ -57973,7 +55584,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -57999,7 +55610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>115</v>
       </c>
@@ -58025,7 +55636,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -58051,7 +55662,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>122</v>
       </c>
@@ -58077,7 +55688,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -58103,7 +55714,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>122</v>
       </c>
@@ -58129,7 +55740,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>122</v>
       </c>
@@ -58155,7 +55766,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>122</v>
       </c>
@@ -58181,7 +55792,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>122</v>
       </c>
@@ -58207,7 +55818,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>122</v>
       </c>
@@ -58233,7 +55844,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>122</v>
       </c>
@@ -58259,7 +55870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>122</v>
       </c>
@@ -58285,7 +55896,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -58311,7 +55922,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>122</v>
       </c>
@@ -58337,7 +55948,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>122</v>
       </c>
@@ -58363,7 +55974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>122</v>
       </c>
@@ -58389,7 +56000,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>123</v>
       </c>
@@ -58415,7 +56026,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -58441,7 +56052,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -58467,7 +56078,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>123</v>
       </c>
@@ -58493,7 +56104,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>123</v>
       </c>
@@ -58519,7 +56130,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>123</v>
       </c>
@@ -58545,7 +56156,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -58571,7 +56182,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>123</v>
       </c>
@@ -58597,7 +56208,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>123</v>
       </c>
@@ -58623,7 +56234,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>123</v>
       </c>
@@ -58649,7 +56260,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -58675,7 +56286,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>123</v>
       </c>
@@ -58701,7 +56312,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>124</v>
       </c>
@@ -58727,7 +56338,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>124</v>
       </c>
@@ -58753,7 +56364,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>124</v>
       </c>
@@ -58779,7 +56390,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -58805,7 +56416,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -58831,7 +56442,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>124</v>
       </c>
@@ -58857,7 +56468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -58883,7 +56494,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>124</v>
       </c>
@@ -58909,7 +56520,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>124</v>
       </c>
@@ -58935,7 +56546,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>124</v>
       </c>
@@ -58961,7 +56572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>124</v>
       </c>
@@ -58987,7 +56598,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>124</v>
       </c>
@@ -59013,7 +56624,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>124</v>
       </c>
@@ -59039,7 +56650,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -59065,7 +56676,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -59091,7 +56702,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>125</v>
       </c>
@@ -59117,7 +56728,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>125</v>
       </c>
@@ -59143,7 +56754,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>125</v>
       </c>
@@ -59169,7 +56780,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>125</v>
       </c>
@@ -59195,7 +56806,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>125</v>
       </c>
@@ -59221,7 +56832,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -59247,7 +56858,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>125</v>
       </c>
@@ -59273,7 +56884,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>125</v>
       </c>
@@ -59299,7 +56910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -59325,7 +56936,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -59351,7 +56962,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -59377,7 +56988,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>125</v>
       </c>
@@ -59403,7 +57014,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>125</v>
       </c>
@@ -59429,7 +57040,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>125</v>
       </c>
@@ -59455,7 +57066,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -59481,7 +57092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -59507,7 +57118,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>126</v>
       </c>
@@ -59533,7 +57144,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>126</v>
       </c>
@@ -59559,7 +57170,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>126</v>
       </c>
@@ -59585,7 +57196,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>126</v>
       </c>
@@ -59611,7 +57222,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>126</v>
       </c>
@@ -59637,7 +57248,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>126</v>
       </c>
@@ -59663,7 +57274,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>126</v>
       </c>
@@ -59689,7 +57300,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>126</v>
       </c>
@@ -59715,7 +57326,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>126</v>
       </c>
@@ -59741,7 +57352,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>126</v>
       </c>
@@ -59767,7 +57378,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>126</v>
       </c>
@@ -59793,7 +57404,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>126</v>
       </c>
@@ -59819,7 +57430,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -59845,7 +57456,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>126</v>
       </c>
@@ -59871,7 +57482,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>127</v>
       </c>
@@ -59897,7 +57508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>127</v>
       </c>
@@ -59923,7 +57534,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>127</v>
       </c>
@@ -59949,7 +57560,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>127</v>
       </c>
@@ -59975,7 +57586,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>127</v>
       </c>
@@ -60001,7 +57612,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>127</v>
       </c>
@@ -60027,7 +57638,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>127</v>
       </c>
@@ -60053,7 +57664,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -60079,7 +57690,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>127</v>
       </c>
@@ -60105,7 +57716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>127</v>
       </c>
@@ -60131,7 +57742,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>127</v>
       </c>
@@ -60157,7 +57768,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>127</v>
       </c>
@@ -60183,7 +57794,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>127</v>
       </c>
@@ -60209,7 +57820,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>127</v>
       </c>
@@ -60235,7 +57846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>127</v>
       </c>
@@ -60261,7 +57872,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>128</v>
       </c>
@@ -60287,7 +57898,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>128</v>
       </c>
@@ -60313,7 +57924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>128</v>
       </c>
@@ -60339,7 +57950,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -60365,7 +57976,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -60391,7 +58002,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>128</v>
       </c>
@@ -60417,7 +58028,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>128</v>
       </c>
@@ -60443,7 +58054,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>128</v>
       </c>
@@ -60469,7 +58080,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>128</v>
       </c>
@@ -60495,7 +58106,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>128</v>
       </c>
@@ -60521,7 +58132,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>128</v>
       </c>
@@ -60547,7 +58158,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>128</v>
       </c>
@@ -60573,7 +58184,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>128</v>
       </c>
@@ -60599,7 +58210,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>128</v>
       </c>
@@ -60963,7 +58574,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -60989,7 +58600,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -61015,7 +58626,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>130</v>
       </c>
@@ -61041,7 +58652,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>130</v>
       </c>
@@ -61067,7 +58678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -61093,7 +58704,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -61119,7 +58730,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -61145,7 +58756,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>130</v>
       </c>
@@ -61171,7 +58782,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>130</v>
       </c>
@@ -61197,7 +58808,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>130</v>
       </c>
@@ -61223,7 +58834,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>130</v>
       </c>
@@ -61249,7 +58860,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>130</v>
       </c>
@@ -61275,7 +58886,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>131</v>
       </c>
@@ -61301,7 +58912,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>131</v>
       </c>
@@ -61327,7 +58938,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>131</v>
       </c>
@@ -61353,7 +58964,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>131</v>
       </c>
@@ -61379,7 +58990,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>131</v>
       </c>
@@ -61405,7 +59016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>131</v>
       </c>
@@ -61431,7 +59042,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>131</v>
       </c>
@@ -61457,7 +59068,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>131</v>
       </c>
@@ -61483,7 +59094,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>131</v>
       </c>
@@ -61509,7 +59120,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>131</v>
       </c>
@@ -61535,7 +59146,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>131</v>
       </c>
@@ -61561,7 +59172,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>131</v>
       </c>
@@ -61587,7 +59198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>132</v>
       </c>
@@ -61613,7 +59224,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>132</v>
       </c>
@@ -61639,7 +59250,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>132</v>
       </c>
@@ -61665,7 +59276,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>132</v>
       </c>
@@ -61691,7 +59302,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>132</v>
       </c>
@@ -61717,7 +59328,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>132</v>
       </c>
@@ -61743,7 +59354,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>132</v>
       </c>
@@ -61769,7 +59380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>132</v>
       </c>
@@ -61795,7 +59406,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>132</v>
       </c>
@@ -61821,7 +59432,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>132</v>
       </c>
@@ -61847,7 +59458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>132</v>
       </c>
@@ -61873,7 +59484,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>132</v>
       </c>
@@ -61899,7 +59510,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>132</v>
       </c>
@@ -61925,7 +59536,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>133</v>
       </c>
@@ -61951,7 +59562,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>133</v>
       </c>
@@ -61977,7 +59588,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>133</v>
       </c>
@@ -62003,7 +59614,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>133</v>
       </c>
@@ -62029,7 +59640,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>133</v>
       </c>
@@ -62055,7 +59666,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>133</v>
       </c>
@@ -62081,7 +59692,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>133</v>
       </c>
@@ -62107,7 +59718,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>133</v>
       </c>
@@ -62133,7 +59744,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>133</v>
       </c>
@@ -62159,7 +59770,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>133</v>
       </c>
@@ -62185,7 +59796,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>133</v>
       </c>
@@ -62211,7 +59822,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>133</v>
       </c>
@@ -62237,7 +59848,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>133</v>
       </c>
@@ -62263,7 +59874,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>133</v>
       </c>
@@ -62289,7 +59900,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>133</v>
       </c>
@@ -62315,7 +59926,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>133</v>
       </c>
@@ -62341,7 +59952,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>133</v>
       </c>
@@ -62367,7 +59978,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>134</v>
       </c>
@@ -62393,7 +60004,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>134</v>
       </c>
@@ -62419,7 +60030,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>134</v>
       </c>
@@ -62445,7 +60056,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>134</v>
       </c>
@@ -62471,7 +60082,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>134</v>
       </c>
@@ -62497,7 +60108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>134</v>
       </c>
@@ -62523,7 +60134,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>134</v>
       </c>
@@ -62549,7 +60160,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>134</v>
       </c>
@@ -62575,7 +60186,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>134</v>
       </c>
@@ -62601,7 +60212,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>134</v>
       </c>
@@ -62627,7 +60238,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>134</v>
       </c>
@@ -62653,7 +60264,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>134</v>
       </c>
@@ -62679,7 +60290,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>134</v>
       </c>
@@ -62705,7 +60316,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>134</v>
       </c>
@@ -62731,7 +60342,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>134</v>
       </c>
@@ -62757,7 +60368,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>134</v>
       </c>
@@ -62783,7 +60394,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>135</v>
       </c>
@@ -62809,7 +60420,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>135</v>
       </c>
@@ -62835,7 +60446,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>135</v>
       </c>
@@ -62861,7 +60472,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>135</v>
       </c>
@@ -62887,7 +60498,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>135</v>
       </c>
@@ -62913,7 +60524,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>135</v>
       </c>
@@ -62939,7 +60550,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>135</v>
       </c>
@@ -62965,7 +60576,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>135</v>
       </c>
@@ -62991,7 +60602,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>135</v>
       </c>
@@ -63017,7 +60628,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>135</v>
       </c>
@@ -63043,7 +60654,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>135</v>
       </c>
@@ -63069,7 +60680,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>135</v>
       </c>
@@ -63095,7 +60706,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>135</v>
       </c>
@@ -63121,7 +60732,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>135</v>
       </c>
@@ -63147,7 +60758,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>135</v>
       </c>
@@ -63173,7 +60784,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>135</v>
       </c>
@@ -63199,7 +60810,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>135</v>
       </c>
@@ -63225,7 +60836,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>136</v>
       </c>
@@ -63251,7 +60862,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>136</v>
       </c>
@@ -63277,7 +60888,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>136</v>
       </c>
@@ -63303,7 +60914,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>136</v>
       </c>
@@ -63329,7 +60940,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>136</v>
       </c>
@@ -63355,7 +60966,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>136</v>
       </c>
@@ -63381,7 +60992,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>136</v>
       </c>
@@ -63407,7 +61018,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>136</v>
       </c>
@@ -63433,7 +61044,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>136</v>
       </c>
@@ -63459,7 +61070,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>136</v>
       </c>
@@ -63485,7 +61096,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>136</v>
       </c>
@@ -63511,7 +61122,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>136</v>
       </c>
@@ -63537,7 +61148,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>136</v>
       </c>
@@ -63563,7 +61174,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>136</v>
       </c>
@@ -63589,7 +61200,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>136</v>
       </c>
@@ -63615,7 +61226,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>136</v>
       </c>
@@ -63641,7 +61252,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>136</v>
       </c>
@@ -63667,7 +61278,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>137</v>
       </c>
@@ -63693,7 +61304,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>137</v>
       </c>
@@ -63719,7 +61330,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>137</v>
       </c>
@@ -63745,7 +61356,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>137</v>
       </c>
@@ -63771,7 +61382,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>137</v>
       </c>
@@ -63797,7 +61408,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>137</v>
       </c>
@@ -63823,7 +61434,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>137</v>
       </c>
@@ -63849,7 +61460,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>137</v>
       </c>
@@ -63875,7 +61486,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>137</v>
       </c>
@@ -63901,7 +61512,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>137</v>
       </c>
@@ -63927,7 +61538,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>137</v>
       </c>
@@ -63953,7 +61564,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>137</v>
       </c>
@@ -63979,7 +61590,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>137</v>
       </c>
@@ -64005,7 +61616,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>137</v>
       </c>
@@ -64031,7 +61642,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>138</v>
       </c>
@@ -64057,7 +61668,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>138</v>
       </c>
@@ -64083,7 +61694,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>138</v>
       </c>
@@ -64109,7 +61720,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>138</v>
       </c>
@@ -64135,7 +61746,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>138</v>
       </c>
@@ -64161,7 +61772,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -64187,7 +61798,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>138</v>
       </c>
@@ -64213,7 +61824,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -64239,7 +61850,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -64265,7 +61876,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>138</v>
       </c>
@@ -64291,7 +61902,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>138</v>
       </c>
@@ -64317,7 +61928,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>138</v>
       </c>
@@ -64343,7 +61954,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>138</v>
       </c>
@@ -64369,7 +61980,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>139</v>
       </c>
@@ -64395,7 +62006,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>139</v>
       </c>
@@ -64421,7 +62032,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>139</v>
       </c>
@@ -64447,7 +62058,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>139</v>
       </c>
@@ -64473,7 +62084,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>139</v>
       </c>
@@ -64499,7 +62110,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>139</v>
       </c>
@@ -64525,7 +62136,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>139</v>
       </c>
@@ -64551,7 +62162,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>139</v>
       </c>
@@ -64577,7 +62188,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>139</v>
       </c>
@@ -64603,7 +62214,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>139</v>
       </c>
@@ -64629,7 +62240,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>139</v>
       </c>
@@ -64655,7 +62266,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>139</v>
       </c>
@@ -64681,7 +62292,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>139</v>
       </c>
@@ -64707,7 +62318,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>139</v>
       </c>
@@ -64733,7 +62344,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>140</v>
       </c>
@@ -64759,7 +62370,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>140</v>
       </c>
@@ -64785,7 +62396,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>140</v>
       </c>
@@ -64811,7 +62422,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>140</v>
       </c>
@@ -64837,7 +62448,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>140</v>
       </c>
@@ -64863,7 +62474,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>140</v>
       </c>
@@ -64889,7 +62500,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>140</v>
       </c>
@@ -64915,7 +62526,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>140</v>
       </c>
@@ -64941,7 +62552,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>140</v>
       </c>
@@ -64967,7 +62578,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>140</v>
       </c>
@@ -64993,7 +62604,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>140</v>
       </c>
@@ -65019,7 +62630,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>140</v>
       </c>
@@ -65045,7 +62656,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>140</v>
       </c>
@@ -65071,7 +62682,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>140</v>
       </c>
@@ -65098,13 +62709,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G285" xr:uid="{00000000-0001-0000-0300-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="educador/a infantil"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G285" xr:uid="{00000000-0001-0000-0300-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/VD_HERRAMIENTA_FILTRADA_RRHH.xlsx
+++ b/VD_HERRAMIENTA_FILTRADA_RRHH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eramos\Improven Consulting, SL\INDE02OPE - Documentos\General\03.1. GENERACIÓN DE DATOS\MaestrosSubidaApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{053028D5-4F6D-4CC0-9B8F-BB5978B096B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C057FF-03F7-4CD8-B906-BE73653ED53B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4010" yWindow="4030" windowWidth="16920" windowHeight="10450" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="3710" windowWidth="16920" windowHeight="10450" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja4" sheetId="1" r:id="rId1"/>
@@ -5874,6 +5874,2406 @@
           <cell r="B78" t="str">
             <v>mvicent@sklum.com</v>
           </cell>
+        </row>
+        <row r="79">
+          <cell r="A79"/>
+          <cell r="B79"/>
+        </row>
+        <row r="80">
+          <cell r="A80"/>
+          <cell r="B80"/>
+        </row>
+        <row r="81">
+          <cell r="A81"/>
+          <cell r="B81"/>
+        </row>
+        <row r="82">
+          <cell r="A82"/>
+          <cell r="B82"/>
+        </row>
+        <row r="83">
+          <cell r="A83"/>
+          <cell r="B83"/>
+        </row>
+        <row r="84">
+          <cell r="A84"/>
+          <cell r="B84"/>
+        </row>
+        <row r="85">
+          <cell r="A85"/>
+          <cell r="B85"/>
+        </row>
+        <row r="86">
+          <cell r="A86"/>
+          <cell r="B86"/>
+        </row>
+        <row r="87">
+          <cell r="A87"/>
+          <cell r="B87"/>
+        </row>
+        <row r="88">
+          <cell r="A88"/>
+          <cell r="B88"/>
+        </row>
+        <row r="89">
+          <cell r="A89"/>
+          <cell r="B89"/>
+        </row>
+        <row r="90">
+          <cell r="A90"/>
+          <cell r="B90"/>
+        </row>
+        <row r="91">
+          <cell r="A91"/>
+          <cell r="B91"/>
+        </row>
+        <row r="92">
+          <cell r="A92"/>
+          <cell r="B92"/>
+        </row>
+        <row r="93">
+          <cell r="A93"/>
+          <cell r="B93"/>
+        </row>
+        <row r="94">
+          <cell r="A94"/>
+          <cell r="B94"/>
+        </row>
+        <row r="95">
+          <cell r="A95"/>
+          <cell r="B95"/>
+        </row>
+        <row r="96">
+          <cell r="A96"/>
+          <cell r="B96"/>
+        </row>
+        <row r="97">
+          <cell r="A97"/>
+          <cell r="B97"/>
+        </row>
+        <row r="98">
+          <cell r="A98"/>
+          <cell r="B98"/>
+        </row>
+        <row r="99">
+          <cell r="A99"/>
+          <cell r="B99"/>
+        </row>
+        <row r="100">
+          <cell r="A100"/>
+          <cell r="B100"/>
+        </row>
+        <row r="101">
+          <cell r="A101"/>
+          <cell r="B101"/>
+        </row>
+        <row r="102">
+          <cell r="A102"/>
+          <cell r="B102"/>
+        </row>
+        <row r="103">
+          <cell r="A103"/>
+          <cell r="B103"/>
+        </row>
+        <row r="104">
+          <cell r="A104"/>
+          <cell r="B104"/>
+        </row>
+        <row r="105">
+          <cell r="A105"/>
+          <cell r="B105"/>
+        </row>
+        <row r="106">
+          <cell r="A106"/>
+          <cell r="B106"/>
+        </row>
+        <row r="107">
+          <cell r="A107"/>
+          <cell r="B107"/>
+        </row>
+        <row r="108">
+          <cell r="A108"/>
+          <cell r="B108"/>
+        </row>
+        <row r="109">
+          <cell r="A109"/>
+          <cell r="B109"/>
+        </row>
+        <row r="110">
+          <cell r="A110"/>
+          <cell r="B110"/>
+        </row>
+        <row r="111">
+          <cell r="A111"/>
+          <cell r="B111"/>
+        </row>
+        <row r="112">
+          <cell r="A112"/>
+          <cell r="B112"/>
+        </row>
+        <row r="113">
+          <cell r="A113"/>
+          <cell r="B113"/>
+        </row>
+        <row r="114">
+          <cell r="A114"/>
+          <cell r="B114"/>
+        </row>
+        <row r="115">
+          <cell r="A115"/>
+          <cell r="B115"/>
+        </row>
+        <row r="116">
+          <cell r="A116"/>
+          <cell r="B116"/>
+        </row>
+        <row r="117">
+          <cell r="A117"/>
+          <cell r="B117"/>
+        </row>
+        <row r="118">
+          <cell r="A118"/>
+          <cell r="B118"/>
+        </row>
+        <row r="119">
+          <cell r="A119"/>
+          <cell r="B119"/>
+        </row>
+        <row r="120">
+          <cell r="A120"/>
+          <cell r="B120"/>
+        </row>
+        <row r="121">
+          <cell r="A121"/>
+          <cell r="B121"/>
+        </row>
+        <row r="122">
+          <cell r="A122"/>
+          <cell r="B122"/>
+        </row>
+        <row r="123">
+          <cell r="A123"/>
+          <cell r="B123"/>
+        </row>
+        <row r="124">
+          <cell r="A124"/>
+          <cell r="B124"/>
+        </row>
+        <row r="125">
+          <cell r="A125"/>
+          <cell r="B125"/>
+        </row>
+        <row r="126">
+          <cell r="A126"/>
+          <cell r="B126"/>
+        </row>
+        <row r="127">
+          <cell r="A127"/>
+          <cell r="B127"/>
+        </row>
+        <row r="128">
+          <cell r="A128"/>
+          <cell r="B128"/>
+        </row>
+        <row r="129">
+          <cell r="A129"/>
+          <cell r="B129"/>
+        </row>
+        <row r="130">
+          <cell r="A130"/>
+          <cell r="B130"/>
+        </row>
+        <row r="131">
+          <cell r="A131"/>
+          <cell r="B131"/>
+        </row>
+        <row r="132">
+          <cell r="A132"/>
+          <cell r="B132"/>
+        </row>
+        <row r="133">
+          <cell r="A133"/>
+          <cell r="B133"/>
+        </row>
+        <row r="134">
+          <cell r="A134"/>
+          <cell r="B134"/>
+        </row>
+        <row r="135">
+          <cell r="A135"/>
+          <cell r="B135"/>
+        </row>
+        <row r="136">
+          <cell r="A136"/>
+          <cell r="B136"/>
+        </row>
+        <row r="137">
+          <cell r="A137"/>
+          <cell r="B137"/>
+        </row>
+        <row r="138">
+          <cell r="A138"/>
+          <cell r="B138"/>
+        </row>
+        <row r="139">
+          <cell r="A139"/>
+          <cell r="B139"/>
+        </row>
+        <row r="140">
+          <cell r="A140"/>
+          <cell r="B140"/>
+        </row>
+        <row r="141">
+          <cell r="A141"/>
+          <cell r="B141"/>
+        </row>
+        <row r="142">
+          <cell r="A142"/>
+          <cell r="B142"/>
+        </row>
+        <row r="143">
+          <cell r="A143"/>
+          <cell r="B143"/>
+        </row>
+        <row r="144">
+          <cell r="A144"/>
+          <cell r="B144"/>
+        </row>
+        <row r="145">
+          <cell r="A145"/>
+          <cell r="B145"/>
+        </row>
+        <row r="146">
+          <cell r="A146"/>
+          <cell r="B146"/>
+        </row>
+        <row r="147">
+          <cell r="A147"/>
+          <cell r="B147"/>
+        </row>
+        <row r="148">
+          <cell r="A148"/>
+          <cell r="B148"/>
+        </row>
+        <row r="149">
+          <cell r="A149"/>
+          <cell r="B149"/>
+        </row>
+        <row r="150">
+          <cell r="A150"/>
+          <cell r="B150"/>
+        </row>
+        <row r="151">
+          <cell r="A151"/>
+          <cell r="B151"/>
+        </row>
+        <row r="152">
+          <cell r="A152"/>
+          <cell r="B152"/>
+        </row>
+        <row r="153">
+          <cell r="A153"/>
+          <cell r="B153"/>
+        </row>
+        <row r="154">
+          <cell r="A154"/>
+          <cell r="B154"/>
+        </row>
+        <row r="155">
+          <cell r="A155"/>
+          <cell r="B155"/>
+        </row>
+        <row r="156">
+          <cell r="A156"/>
+          <cell r="B156"/>
+        </row>
+        <row r="157">
+          <cell r="A157"/>
+          <cell r="B157"/>
+        </row>
+        <row r="158">
+          <cell r="A158"/>
+          <cell r="B158"/>
+        </row>
+        <row r="159">
+          <cell r="A159"/>
+          <cell r="B159"/>
+        </row>
+        <row r="160">
+          <cell r="A160"/>
+          <cell r="B160"/>
+        </row>
+        <row r="161">
+          <cell r="A161"/>
+          <cell r="B161"/>
+        </row>
+        <row r="162">
+          <cell r="A162"/>
+          <cell r="B162"/>
+        </row>
+        <row r="163">
+          <cell r="A163"/>
+          <cell r="B163"/>
+        </row>
+        <row r="164">
+          <cell r="A164"/>
+          <cell r="B164"/>
+        </row>
+        <row r="165">
+          <cell r="A165"/>
+          <cell r="B165"/>
+        </row>
+        <row r="166">
+          <cell r="A166"/>
+          <cell r="B166"/>
+        </row>
+        <row r="167">
+          <cell r="A167"/>
+          <cell r="B167"/>
+        </row>
+        <row r="168">
+          <cell r="A168"/>
+          <cell r="B168"/>
+        </row>
+        <row r="169">
+          <cell r="A169"/>
+          <cell r="B169"/>
+        </row>
+        <row r="170">
+          <cell r="A170"/>
+          <cell r="B170"/>
+        </row>
+        <row r="171">
+          <cell r="A171"/>
+          <cell r="B171"/>
+        </row>
+        <row r="172">
+          <cell r="A172"/>
+          <cell r="B172"/>
+        </row>
+        <row r="173">
+          <cell r="A173"/>
+          <cell r="B173"/>
+        </row>
+        <row r="174">
+          <cell r="A174"/>
+          <cell r="B174"/>
+        </row>
+        <row r="175">
+          <cell r="A175"/>
+          <cell r="B175"/>
+        </row>
+        <row r="176">
+          <cell r="A176"/>
+          <cell r="B176"/>
+        </row>
+        <row r="177">
+          <cell r="A177"/>
+          <cell r="B177"/>
+        </row>
+        <row r="178">
+          <cell r="A178"/>
+          <cell r="B178"/>
+        </row>
+        <row r="179">
+          <cell r="A179"/>
+          <cell r="B179"/>
+        </row>
+        <row r="180">
+          <cell r="A180"/>
+          <cell r="B180"/>
+        </row>
+        <row r="181">
+          <cell r="A181"/>
+          <cell r="B181"/>
+        </row>
+        <row r="182">
+          <cell r="A182"/>
+          <cell r="B182"/>
+        </row>
+        <row r="183">
+          <cell r="A183"/>
+          <cell r="B183"/>
+        </row>
+        <row r="184">
+          <cell r="A184"/>
+          <cell r="B184"/>
+        </row>
+        <row r="185">
+          <cell r="A185"/>
+          <cell r="B185"/>
+        </row>
+        <row r="186">
+          <cell r="A186"/>
+          <cell r="B186"/>
+        </row>
+        <row r="187">
+          <cell r="A187"/>
+          <cell r="B187"/>
+        </row>
+        <row r="188">
+          <cell r="A188"/>
+          <cell r="B188"/>
+        </row>
+        <row r="189">
+          <cell r="A189"/>
+          <cell r="B189"/>
+        </row>
+        <row r="190">
+          <cell r="A190"/>
+          <cell r="B190"/>
+        </row>
+        <row r="191">
+          <cell r="A191"/>
+          <cell r="B191"/>
+        </row>
+        <row r="192">
+          <cell r="A192"/>
+          <cell r="B192"/>
+        </row>
+        <row r="193">
+          <cell r="A193"/>
+          <cell r="B193"/>
+        </row>
+        <row r="194">
+          <cell r="A194"/>
+          <cell r="B194"/>
+        </row>
+        <row r="195">
+          <cell r="A195"/>
+          <cell r="B195"/>
+        </row>
+        <row r="196">
+          <cell r="A196"/>
+          <cell r="B196"/>
+        </row>
+        <row r="197">
+          <cell r="A197"/>
+          <cell r="B197"/>
+        </row>
+        <row r="198">
+          <cell r="A198"/>
+          <cell r="B198"/>
+        </row>
+        <row r="199">
+          <cell r="A199"/>
+          <cell r="B199"/>
+        </row>
+        <row r="200">
+          <cell r="A200"/>
+          <cell r="B200"/>
+        </row>
+        <row r="201">
+          <cell r="A201"/>
+          <cell r="B201"/>
+        </row>
+        <row r="202">
+          <cell r="A202"/>
+          <cell r="B202"/>
+        </row>
+        <row r="203">
+          <cell r="A203"/>
+          <cell r="B203"/>
+        </row>
+        <row r="204">
+          <cell r="A204"/>
+          <cell r="B204"/>
+        </row>
+        <row r="205">
+          <cell r="A205"/>
+          <cell r="B205"/>
+        </row>
+        <row r="206">
+          <cell r="A206"/>
+          <cell r="B206"/>
+        </row>
+        <row r="207">
+          <cell r="A207"/>
+          <cell r="B207"/>
+        </row>
+        <row r="208">
+          <cell r="A208"/>
+          <cell r="B208"/>
+        </row>
+        <row r="209">
+          <cell r="A209"/>
+          <cell r="B209"/>
+        </row>
+        <row r="210">
+          <cell r="A210"/>
+          <cell r="B210"/>
+        </row>
+        <row r="211">
+          <cell r="A211"/>
+          <cell r="B211"/>
+        </row>
+        <row r="212">
+          <cell r="A212"/>
+          <cell r="B212"/>
+        </row>
+        <row r="213">
+          <cell r="A213"/>
+          <cell r="B213"/>
+        </row>
+        <row r="214">
+          <cell r="A214"/>
+          <cell r="B214"/>
+        </row>
+        <row r="215">
+          <cell r="A215"/>
+          <cell r="B215"/>
+        </row>
+        <row r="216">
+          <cell r="A216"/>
+          <cell r="B216"/>
+        </row>
+        <row r="217">
+          <cell r="A217"/>
+          <cell r="B217"/>
+        </row>
+        <row r="218">
+          <cell r="A218"/>
+          <cell r="B218"/>
+        </row>
+        <row r="219">
+          <cell r="A219"/>
+          <cell r="B219"/>
+        </row>
+        <row r="220">
+          <cell r="A220"/>
+          <cell r="B220"/>
+        </row>
+        <row r="221">
+          <cell r="A221"/>
+          <cell r="B221"/>
+        </row>
+        <row r="222">
+          <cell r="A222"/>
+          <cell r="B222"/>
+        </row>
+        <row r="223">
+          <cell r="A223"/>
+          <cell r="B223"/>
+        </row>
+        <row r="224">
+          <cell r="A224"/>
+          <cell r="B224"/>
+        </row>
+        <row r="225">
+          <cell r="A225"/>
+          <cell r="B225"/>
+        </row>
+        <row r="226">
+          <cell r="A226"/>
+          <cell r="B226"/>
+        </row>
+        <row r="227">
+          <cell r="A227"/>
+          <cell r="B227"/>
+        </row>
+        <row r="228">
+          <cell r="A228"/>
+          <cell r="B228"/>
+        </row>
+        <row r="229">
+          <cell r="A229"/>
+          <cell r="B229"/>
+        </row>
+        <row r="230">
+          <cell r="A230"/>
+          <cell r="B230"/>
+        </row>
+        <row r="231">
+          <cell r="A231"/>
+          <cell r="B231"/>
+        </row>
+        <row r="232">
+          <cell r="A232"/>
+          <cell r="B232"/>
+        </row>
+        <row r="233">
+          <cell r="A233"/>
+          <cell r="B233"/>
+        </row>
+        <row r="234">
+          <cell r="A234"/>
+          <cell r="B234"/>
+        </row>
+        <row r="235">
+          <cell r="A235"/>
+          <cell r="B235"/>
+        </row>
+        <row r="236">
+          <cell r="A236"/>
+          <cell r="B236"/>
+        </row>
+        <row r="237">
+          <cell r="A237"/>
+          <cell r="B237"/>
+        </row>
+        <row r="238">
+          <cell r="A238"/>
+          <cell r="B238"/>
+        </row>
+        <row r="239">
+          <cell r="A239"/>
+          <cell r="B239"/>
+        </row>
+        <row r="240">
+          <cell r="A240"/>
+          <cell r="B240"/>
+        </row>
+        <row r="241">
+          <cell r="A241"/>
+          <cell r="B241"/>
+        </row>
+        <row r="242">
+          <cell r="A242"/>
+          <cell r="B242"/>
+        </row>
+        <row r="243">
+          <cell r="A243"/>
+          <cell r="B243"/>
+        </row>
+        <row r="244">
+          <cell r="A244"/>
+          <cell r="B244"/>
+        </row>
+        <row r="245">
+          <cell r="A245"/>
+          <cell r="B245"/>
+        </row>
+        <row r="246">
+          <cell r="A246"/>
+          <cell r="B246"/>
+        </row>
+        <row r="247">
+          <cell r="A247"/>
+          <cell r="B247"/>
+        </row>
+        <row r="248">
+          <cell r="A248"/>
+          <cell r="B248"/>
+        </row>
+        <row r="249">
+          <cell r="A249"/>
+          <cell r="B249"/>
+        </row>
+        <row r="250">
+          <cell r="A250"/>
+          <cell r="B250"/>
+        </row>
+        <row r="251">
+          <cell r="A251"/>
+          <cell r="B251"/>
+        </row>
+        <row r="252">
+          <cell r="A252"/>
+          <cell r="B252"/>
+        </row>
+        <row r="253">
+          <cell r="A253"/>
+          <cell r="B253"/>
+        </row>
+        <row r="254">
+          <cell r="A254"/>
+          <cell r="B254"/>
+        </row>
+        <row r="255">
+          <cell r="A255"/>
+          <cell r="B255"/>
+        </row>
+        <row r="256">
+          <cell r="A256"/>
+          <cell r="B256"/>
+        </row>
+        <row r="257">
+          <cell r="A257"/>
+          <cell r="B257"/>
+        </row>
+        <row r="258">
+          <cell r="A258"/>
+          <cell r="B258"/>
+        </row>
+        <row r="259">
+          <cell r="A259"/>
+          <cell r="B259"/>
+        </row>
+        <row r="260">
+          <cell r="A260"/>
+          <cell r="B260"/>
+        </row>
+        <row r="261">
+          <cell r="A261"/>
+          <cell r="B261"/>
+        </row>
+        <row r="262">
+          <cell r="A262"/>
+          <cell r="B262"/>
+        </row>
+        <row r="263">
+          <cell r="A263"/>
+          <cell r="B263"/>
+        </row>
+        <row r="264">
+          <cell r="A264"/>
+          <cell r="B264"/>
+        </row>
+        <row r="265">
+          <cell r="A265"/>
+          <cell r="B265"/>
+        </row>
+        <row r="266">
+          <cell r="A266"/>
+          <cell r="B266"/>
+        </row>
+        <row r="267">
+          <cell r="A267"/>
+          <cell r="B267"/>
+        </row>
+        <row r="268">
+          <cell r="A268"/>
+          <cell r="B268"/>
+        </row>
+        <row r="269">
+          <cell r="A269"/>
+          <cell r="B269"/>
+        </row>
+        <row r="270">
+          <cell r="A270"/>
+          <cell r="B270"/>
+        </row>
+        <row r="271">
+          <cell r="A271"/>
+          <cell r="B271"/>
+        </row>
+        <row r="272">
+          <cell r="A272"/>
+          <cell r="B272"/>
+        </row>
+        <row r="273">
+          <cell r="A273"/>
+          <cell r="B273"/>
+        </row>
+        <row r="274">
+          <cell r="A274"/>
+          <cell r="B274"/>
+        </row>
+        <row r="275">
+          <cell r="A275"/>
+          <cell r="B275"/>
+        </row>
+        <row r="276">
+          <cell r="A276"/>
+          <cell r="B276"/>
+        </row>
+        <row r="277">
+          <cell r="A277"/>
+          <cell r="B277"/>
+        </row>
+        <row r="278">
+          <cell r="A278"/>
+          <cell r="B278"/>
+        </row>
+        <row r="279">
+          <cell r="A279"/>
+          <cell r="B279"/>
+        </row>
+        <row r="280">
+          <cell r="A280"/>
+          <cell r="B280"/>
+        </row>
+        <row r="281">
+          <cell r="A281"/>
+          <cell r="B281"/>
+        </row>
+        <row r="282">
+          <cell r="A282"/>
+          <cell r="B282"/>
+        </row>
+        <row r="283">
+          <cell r="A283"/>
+          <cell r="B283"/>
+        </row>
+        <row r="284">
+          <cell r="A284"/>
+          <cell r="B284"/>
+        </row>
+        <row r="285">
+          <cell r="A285"/>
+          <cell r="B285"/>
+        </row>
+        <row r="286">
+          <cell r="A286"/>
+          <cell r="B286"/>
+        </row>
+        <row r="287">
+          <cell r="A287"/>
+          <cell r="B287"/>
+        </row>
+        <row r="288">
+          <cell r="A288"/>
+          <cell r="B288"/>
+        </row>
+        <row r="289">
+          <cell r="A289"/>
+          <cell r="B289"/>
+        </row>
+        <row r="290">
+          <cell r="A290"/>
+          <cell r="B290"/>
+        </row>
+        <row r="291">
+          <cell r="A291"/>
+          <cell r="B291"/>
+        </row>
+        <row r="292">
+          <cell r="A292"/>
+          <cell r="B292"/>
+        </row>
+        <row r="293">
+          <cell r="A293"/>
+          <cell r="B293"/>
+        </row>
+        <row r="294">
+          <cell r="A294"/>
+          <cell r="B294"/>
+        </row>
+        <row r="295">
+          <cell r="A295"/>
+          <cell r="B295"/>
+        </row>
+        <row r="296">
+          <cell r="A296"/>
+          <cell r="B296"/>
+        </row>
+        <row r="297">
+          <cell r="A297"/>
+          <cell r="B297"/>
+        </row>
+        <row r="298">
+          <cell r="A298"/>
+          <cell r="B298"/>
+        </row>
+        <row r="299">
+          <cell r="A299"/>
+          <cell r="B299"/>
+        </row>
+        <row r="300">
+          <cell r="A300"/>
+          <cell r="B300"/>
+        </row>
+        <row r="301">
+          <cell r="A301"/>
+          <cell r="B301"/>
+        </row>
+        <row r="302">
+          <cell r="A302"/>
+          <cell r="B302"/>
+        </row>
+        <row r="303">
+          <cell r="A303"/>
+          <cell r="B303"/>
+        </row>
+        <row r="304">
+          <cell r="A304"/>
+          <cell r="B304"/>
+        </row>
+        <row r="305">
+          <cell r="A305"/>
+          <cell r="B305"/>
+        </row>
+        <row r="306">
+          <cell r="A306"/>
+          <cell r="B306"/>
+        </row>
+        <row r="307">
+          <cell r="A307"/>
+          <cell r="B307"/>
+        </row>
+        <row r="308">
+          <cell r="A308"/>
+          <cell r="B308"/>
+        </row>
+        <row r="309">
+          <cell r="A309"/>
+          <cell r="B309"/>
+        </row>
+        <row r="310">
+          <cell r="A310"/>
+          <cell r="B310"/>
+        </row>
+        <row r="311">
+          <cell r="A311"/>
+          <cell r="B311"/>
+        </row>
+        <row r="312">
+          <cell r="A312"/>
+          <cell r="B312"/>
+        </row>
+        <row r="313">
+          <cell r="A313"/>
+          <cell r="B313"/>
+        </row>
+        <row r="314">
+          <cell r="A314"/>
+          <cell r="B314"/>
+        </row>
+        <row r="315">
+          <cell r="A315"/>
+          <cell r="B315"/>
+        </row>
+        <row r="316">
+          <cell r="A316"/>
+          <cell r="B316"/>
+        </row>
+        <row r="317">
+          <cell r="A317"/>
+          <cell r="B317"/>
+        </row>
+        <row r="318">
+          <cell r="A318"/>
+          <cell r="B318"/>
+        </row>
+        <row r="319">
+          <cell r="A319"/>
+          <cell r="B319"/>
+        </row>
+        <row r="320">
+          <cell r="A320"/>
+          <cell r="B320"/>
+        </row>
+        <row r="321">
+          <cell r="A321"/>
+          <cell r="B321"/>
+        </row>
+        <row r="322">
+          <cell r="A322"/>
+          <cell r="B322"/>
+        </row>
+        <row r="323">
+          <cell r="A323"/>
+          <cell r="B323"/>
+        </row>
+        <row r="324">
+          <cell r="A324"/>
+          <cell r="B324"/>
+        </row>
+        <row r="325">
+          <cell r="A325"/>
+          <cell r="B325"/>
+        </row>
+        <row r="326">
+          <cell r="A326"/>
+          <cell r="B326"/>
+        </row>
+        <row r="327">
+          <cell r="A327"/>
+          <cell r="B327"/>
+        </row>
+        <row r="328">
+          <cell r="A328"/>
+          <cell r="B328"/>
+        </row>
+        <row r="329">
+          <cell r="A329"/>
+          <cell r="B329"/>
+        </row>
+        <row r="330">
+          <cell r="A330"/>
+          <cell r="B330"/>
+        </row>
+        <row r="331">
+          <cell r="A331"/>
+          <cell r="B331"/>
+        </row>
+        <row r="332">
+          <cell r="A332"/>
+          <cell r="B332"/>
+        </row>
+        <row r="333">
+          <cell r="A333"/>
+          <cell r="B333"/>
+        </row>
+        <row r="334">
+          <cell r="A334"/>
+          <cell r="B334"/>
+        </row>
+        <row r="335">
+          <cell r="A335"/>
+          <cell r="B335"/>
+        </row>
+        <row r="336">
+          <cell r="A336"/>
+          <cell r="B336"/>
+        </row>
+        <row r="337">
+          <cell r="A337"/>
+          <cell r="B337"/>
+        </row>
+        <row r="338">
+          <cell r="A338"/>
+          <cell r="B338"/>
+        </row>
+        <row r="339">
+          <cell r="A339"/>
+          <cell r="B339"/>
+        </row>
+        <row r="340">
+          <cell r="A340"/>
+          <cell r="B340"/>
+        </row>
+        <row r="341">
+          <cell r="A341"/>
+          <cell r="B341"/>
+        </row>
+        <row r="342">
+          <cell r="A342"/>
+          <cell r="B342"/>
+        </row>
+        <row r="343">
+          <cell r="A343"/>
+          <cell r="B343"/>
+        </row>
+        <row r="344">
+          <cell r="A344"/>
+          <cell r="B344"/>
+        </row>
+        <row r="345">
+          <cell r="A345"/>
+          <cell r="B345"/>
+        </row>
+        <row r="346">
+          <cell r="A346"/>
+          <cell r="B346"/>
+        </row>
+        <row r="347">
+          <cell r="A347"/>
+          <cell r="B347"/>
+        </row>
+        <row r="348">
+          <cell r="A348"/>
+          <cell r="B348"/>
+        </row>
+        <row r="349">
+          <cell r="A349"/>
+          <cell r="B349"/>
+        </row>
+        <row r="350">
+          <cell r="A350"/>
+          <cell r="B350"/>
+        </row>
+        <row r="351">
+          <cell r="A351"/>
+          <cell r="B351"/>
+        </row>
+        <row r="352">
+          <cell r="A352"/>
+          <cell r="B352"/>
+        </row>
+        <row r="353">
+          <cell r="A353"/>
+          <cell r="B353"/>
+        </row>
+        <row r="354">
+          <cell r="A354"/>
+          <cell r="B354"/>
+        </row>
+        <row r="355">
+          <cell r="A355"/>
+          <cell r="B355"/>
+        </row>
+        <row r="356">
+          <cell r="A356"/>
+          <cell r="B356"/>
+        </row>
+        <row r="357">
+          <cell r="A357"/>
+          <cell r="B357"/>
+        </row>
+        <row r="358">
+          <cell r="A358"/>
+          <cell r="B358"/>
+        </row>
+        <row r="359">
+          <cell r="A359"/>
+          <cell r="B359"/>
+        </row>
+        <row r="360">
+          <cell r="A360"/>
+          <cell r="B360"/>
+        </row>
+        <row r="361">
+          <cell r="A361"/>
+          <cell r="B361"/>
+        </row>
+        <row r="362">
+          <cell r="A362"/>
+          <cell r="B362"/>
+        </row>
+        <row r="363">
+          <cell r="A363"/>
+          <cell r="B363"/>
+        </row>
+        <row r="364">
+          <cell r="A364"/>
+          <cell r="B364"/>
+        </row>
+        <row r="365">
+          <cell r="A365"/>
+          <cell r="B365"/>
+        </row>
+        <row r="366">
+          <cell r="A366"/>
+          <cell r="B366"/>
+        </row>
+        <row r="367">
+          <cell r="A367"/>
+          <cell r="B367"/>
+        </row>
+        <row r="368">
+          <cell r="A368"/>
+          <cell r="B368"/>
+        </row>
+        <row r="369">
+          <cell r="A369"/>
+          <cell r="B369"/>
+        </row>
+        <row r="370">
+          <cell r="A370"/>
+          <cell r="B370"/>
+        </row>
+        <row r="371">
+          <cell r="A371"/>
+          <cell r="B371"/>
+        </row>
+        <row r="372">
+          <cell r="A372"/>
+          <cell r="B372"/>
+        </row>
+        <row r="373">
+          <cell r="A373"/>
+          <cell r="B373"/>
+        </row>
+        <row r="374">
+          <cell r="A374"/>
+          <cell r="B374"/>
+        </row>
+        <row r="375">
+          <cell r="A375"/>
+          <cell r="B375"/>
+        </row>
+        <row r="376">
+          <cell r="A376"/>
+          <cell r="B376"/>
+        </row>
+        <row r="377">
+          <cell r="A377"/>
+          <cell r="B377"/>
+        </row>
+        <row r="378">
+          <cell r="A378"/>
+          <cell r="B378"/>
+        </row>
+        <row r="379">
+          <cell r="A379"/>
+          <cell r="B379"/>
+        </row>
+        <row r="380">
+          <cell r="A380"/>
+          <cell r="B380"/>
+        </row>
+        <row r="381">
+          <cell r="A381"/>
+          <cell r="B381"/>
+        </row>
+        <row r="382">
+          <cell r="A382"/>
+          <cell r="B382"/>
+        </row>
+        <row r="383">
+          <cell r="A383"/>
+          <cell r="B383"/>
+        </row>
+        <row r="384">
+          <cell r="A384"/>
+          <cell r="B384"/>
+        </row>
+        <row r="385">
+          <cell r="A385"/>
+          <cell r="B385"/>
+        </row>
+        <row r="386">
+          <cell r="A386"/>
+          <cell r="B386"/>
+        </row>
+        <row r="387">
+          <cell r="A387"/>
+          <cell r="B387"/>
+        </row>
+        <row r="388">
+          <cell r="A388"/>
+          <cell r="B388"/>
+        </row>
+        <row r="389">
+          <cell r="A389"/>
+          <cell r="B389"/>
+        </row>
+        <row r="390">
+          <cell r="A390"/>
+          <cell r="B390"/>
+        </row>
+        <row r="391">
+          <cell r="A391"/>
+          <cell r="B391"/>
+        </row>
+        <row r="392">
+          <cell r="A392"/>
+          <cell r="B392"/>
+        </row>
+        <row r="393">
+          <cell r="A393"/>
+          <cell r="B393"/>
+        </row>
+        <row r="394">
+          <cell r="A394"/>
+          <cell r="B394"/>
+        </row>
+        <row r="395">
+          <cell r="A395"/>
+          <cell r="B395"/>
+        </row>
+        <row r="396">
+          <cell r="A396"/>
+          <cell r="B396"/>
+        </row>
+        <row r="397">
+          <cell r="A397"/>
+          <cell r="B397"/>
+        </row>
+        <row r="398">
+          <cell r="A398"/>
+          <cell r="B398"/>
+        </row>
+        <row r="399">
+          <cell r="A399"/>
+          <cell r="B399"/>
+        </row>
+        <row r="400">
+          <cell r="A400"/>
+          <cell r="B400"/>
+        </row>
+        <row r="401">
+          <cell r="A401"/>
+          <cell r="B401"/>
+        </row>
+        <row r="402">
+          <cell r="A402"/>
+          <cell r="B402"/>
+        </row>
+        <row r="403">
+          <cell r="A403"/>
+          <cell r="B403"/>
+        </row>
+        <row r="404">
+          <cell r="A404"/>
+          <cell r="B404"/>
+        </row>
+        <row r="405">
+          <cell r="A405"/>
+          <cell r="B405"/>
+        </row>
+        <row r="406">
+          <cell r="A406"/>
+          <cell r="B406"/>
+        </row>
+        <row r="407">
+          <cell r="A407"/>
+          <cell r="B407"/>
+        </row>
+        <row r="408">
+          <cell r="A408"/>
+          <cell r="B408"/>
+        </row>
+        <row r="409">
+          <cell r="A409"/>
+          <cell r="B409"/>
+        </row>
+        <row r="410">
+          <cell r="A410"/>
+          <cell r="B410"/>
+        </row>
+        <row r="411">
+          <cell r="A411"/>
+          <cell r="B411"/>
+        </row>
+        <row r="412">
+          <cell r="A412"/>
+          <cell r="B412"/>
+        </row>
+        <row r="413">
+          <cell r="A413"/>
+          <cell r="B413"/>
+        </row>
+        <row r="414">
+          <cell r="A414"/>
+          <cell r="B414"/>
+        </row>
+        <row r="415">
+          <cell r="A415"/>
+          <cell r="B415"/>
+        </row>
+        <row r="416">
+          <cell r="A416"/>
+          <cell r="B416"/>
+        </row>
+        <row r="417">
+          <cell r="A417"/>
+          <cell r="B417"/>
+        </row>
+        <row r="418">
+          <cell r="A418"/>
+          <cell r="B418"/>
+        </row>
+        <row r="419">
+          <cell r="A419"/>
+          <cell r="B419"/>
+        </row>
+        <row r="420">
+          <cell r="A420"/>
+          <cell r="B420"/>
+        </row>
+        <row r="421">
+          <cell r="A421"/>
+          <cell r="B421"/>
+        </row>
+        <row r="422">
+          <cell r="A422"/>
+          <cell r="B422"/>
+        </row>
+        <row r="423">
+          <cell r="A423"/>
+          <cell r="B423"/>
+        </row>
+        <row r="424">
+          <cell r="A424"/>
+          <cell r="B424"/>
+        </row>
+        <row r="425">
+          <cell r="A425"/>
+          <cell r="B425"/>
+        </row>
+        <row r="426">
+          <cell r="A426"/>
+          <cell r="B426"/>
+        </row>
+        <row r="427">
+          <cell r="A427"/>
+          <cell r="B427"/>
+        </row>
+        <row r="428">
+          <cell r="A428"/>
+          <cell r="B428"/>
+        </row>
+        <row r="429">
+          <cell r="A429"/>
+          <cell r="B429"/>
+        </row>
+        <row r="430">
+          <cell r="A430"/>
+          <cell r="B430"/>
+        </row>
+        <row r="431">
+          <cell r="A431"/>
+          <cell r="B431"/>
+        </row>
+        <row r="432">
+          <cell r="A432"/>
+          <cell r="B432"/>
+        </row>
+        <row r="433">
+          <cell r="A433"/>
+          <cell r="B433"/>
+        </row>
+        <row r="434">
+          <cell r="A434"/>
+          <cell r="B434"/>
+        </row>
+        <row r="435">
+          <cell r="A435"/>
+          <cell r="B435"/>
+        </row>
+        <row r="436">
+          <cell r="A436"/>
+          <cell r="B436"/>
+        </row>
+        <row r="437">
+          <cell r="A437"/>
+          <cell r="B437"/>
+        </row>
+        <row r="438">
+          <cell r="A438"/>
+          <cell r="B438"/>
+        </row>
+        <row r="439">
+          <cell r="A439"/>
+          <cell r="B439"/>
+        </row>
+        <row r="440">
+          <cell r="A440"/>
+          <cell r="B440"/>
+        </row>
+        <row r="441">
+          <cell r="A441"/>
+          <cell r="B441"/>
+        </row>
+        <row r="442">
+          <cell r="A442"/>
+          <cell r="B442"/>
+        </row>
+        <row r="443">
+          <cell r="A443"/>
+          <cell r="B443"/>
+        </row>
+        <row r="444">
+          <cell r="A444"/>
+          <cell r="B444"/>
+        </row>
+        <row r="445">
+          <cell r="A445"/>
+          <cell r="B445"/>
+        </row>
+        <row r="446">
+          <cell r="A446"/>
+          <cell r="B446"/>
+        </row>
+        <row r="447">
+          <cell r="A447"/>
+          <cell r="B447"/>
+        </row>
+        <row r="448">
+          <cell r="A448"/>
+          <cell r="B448"/>
+        </row>
+        <row r="449">
+          <cell r="A449"/>
+          <cell r="B449"/>
+        </row>
+        <row r="450">
+          <cell r="A450"/>
+          <cell r="B450"/>
+        </row>
+        <row r="451">
+          <cell r="A451"/>
+          <cell r="B451"/>
+        </row>
+        <row r="452">
+          <cell r="A452"/>
+          <cell r="B452"/>
+        </row>
+        <row r="453">
+          <cell r="A453"/>
+          <cell r="B453"/>
+        </row>
+        <row r="454">
+          <cell r="A454"/>
+          <cell r="B454"/>
+        </row>
+        <row r="455">
+          <cell r="A455"/>
+          <cell r="B455"/>
+        </row>
+        <row r="456">
+          <cell r="A456"/>
+          <cell r="B456"/>
+        </row>
+        <row r="457">
+          <cell r="A457"/>
+          <cell r="B457"/>
+        </row>
+        <row r="458">
+          <cell r="A458"/>
+          <cell r="B458"/>
+        </row>
+        <row r="459">
+          <cell r="A459"/>
+          <cell r="B459"/>
+        </row>
+        <row r="460">
+          <cell r="A460"/>
+          <cell r="B460"/>
+        </row>
+        <row r="461">
+          <cell r="A461"/>
+          <cell r="B461"/>
+        </row>
+        <row r="462">
+          <cell r="A462"/>
+          <cell r="B462"/>
+        </row>
+        <row r="463">
+          <cell r="A463"/>
+          <cell r="B463"/>
+        </row>
+        <row r="464">
+          <cell r="A464"/>
+          <cell r="B464"/>
+        </row>
+        <row r="465">
+          <cell r="A465"/>
+          <cell r="B465"/>
+        </row>
+        <row r="466">
+          <cell r="A466"/>
+          <cell r="B466"/>
+        </row>
+        <row r="467">
+          <cell r="A467"/>
+          <cell r="B467"/>
+        </row>
+        <row r="468">
+          <cell r="A468"/>
+          <cell r="B468"/>
+        </row>
+        <row r="469">
+          <cell r="A469"/>
+          <cell r="B469"/>
+        </row>
+        <row r="470">
+          <cell r="A470"/>
+          <cell r="B470"/>
+        </row>
+        <row r="471">
+          <cell r="A471"/>
+          <cell r="B471"/>
+        </row>
+        <row r="472">
+          <cell r="A472"/>
+          <cell r="B472"/>
+        </row>
+        <row r="473">
+          <cell r="A473"/>
+          <cell r="B473"/>
+        </row>
+        <row r="474">
+          <cell r="A474"/>
+          <cell r="B474"/>
+        </row>
+        <row r="475">
+          <cell r="A475"/>
+          <cell r="B475"/>
+        </row>
+        <row r="476">
+          <cell r="A476"/>
+          <cell r="B476"/>
+        </row>
+        <row r="477">
+          <cell r="A477"/>
+          <cell r="B477"/>
+        </row>
+        <row r="478">
+          <cell r="A478"/>
+          <cell r="B478"/>
+        </row>
+        <row r="479">
+          <cell r="A479"/>
+          <cell r="B479"/>
+        </row>
+        <row r="480">
+          <cell r="A480"/>
+          <cell r="B480"/>
+        </row>
+        <row r="481">
+          <cell r="A481"/>
+          <cell r="B481"/>
+        </row>
+        <row r="482">
+          <cell r="A482"/>
+          <cell r="B482"/>
+        </row>
+        <row r="483">
+          <cell r="A483"/>
+          <cell r="B483"/>
+        </row>
+        <row r="484">
+          <cell r="A484"/>
+          <cell r="B484"/>
+        </row>
+        <row r="485">
+          <cell r="A485"/>
+          <cell r="B485"/>
+        </row>
+        <row r="486">
+          <cell r="A486"/>
+          <cell r="B486"/>
+        </row>
+        <row r="487">
+          <cell r="A487"/>
+          <cell r="B487"/>
+        </row>
+        <row r="488">
+          <cell r="A488"/>
+          <cell r="B488"/>
+        </row>
+        <row r="489">
+          <cell r="A489"/>
+          <cell r="B489"/>
+        </row>
+        <row r="490">
+          <cell r="A490"/>
+          <cell r="B490"/>
+        </row>
+        <row r="491">
+          <cell r="A491"/>
+          <cell r="B491"/>
+        </row>
+        <row r="492">
+          <cell r="A492"/>
+          <cell r="B492"/>
+        </row>
+        <row r="493">
+          <cell r="A493"/>
+          <cell r="B493"/>
+        </row>
+        <row r="494">
+          <cell r="A494"/>
+          <cell r="B494"/>
+        </row>
+        <row r="495">
+          <cell r="A495"/>
+          <cell r="B495"/>
+        </row>
+        <row r="496">
+          <cell r="A496"/>
+          <cell r="B496"/>
+        </row>
+        <row r="497">
+          <cell r="A497"/>
+          <cell r="B497"/>
+        </row>
+        <row r="498">
+          <cell r="A498"/>
+          <cell r="B498"/>
+        </row>
+        <row r="499">
+          <cell r="A499"/>
+          <cell r="B499"/>
+        </row>
+        <row r="500">
+          <cell r="A500"/>
+          <cell r="B500"/>
+        </row>
+        <row r="501">
+          <cell r="A501"/>
+          <cell r="B501"/>
+        </row>
+        <row r="502">
+          <cell r="A502"/>
+          <cell r="B502"/>
+        </row>
+        <row r="503">
+          <cell r="A503"/>
+          <cell r="B503"/>
+        </row>
+        <row r="504">
+          <cell r="A504"/>
+          <cell r="B504"/>
+        </row>
+        <row r="505">
+          <cell r="A505"/>
+          <cell r="B505"/>
+        </row>
+        <row r="506">
+          <cell r="A506"/>
+          <cell r="B506"/>
+        </row>
+        <row r="507">
+          <cell r="A507"/>
+          <cell r="B507"/>
+        </row>
+        <row r="508">
+          <cell r="A508"/>
+          <cell r="B508"/>
+        </row>
+        <row r="509">
+          <cell r="A509"/>
+          <cell r="B509"/>
+        </row>
+        <row r="510">
+          <cell r="A510"/>
+          <cell r="B510"/>
+        </row>
+        <row r="511">
+          <cell r="A511"/>
+          <cell r="B511"/>
+        </row>
+        <row r="512">
+          <cell r="A512"/>
+          <cell r="B512"/>
+        </row>
+        <row r="513">
+          <cell r="A513"/>
+          <cell r="B513"/>
+        </row>
+        <row r="514">
+          <cell r="A514"/>
+          <cell r="B514"/>
+        </row>
+        <row r="515">
+          <cell r="A515"/>
+          <cell r="B515"/>
+        </row>
+        <row r="516">
+          <cell r="A516"/>
+          <cell r="B516"/>
+        </row>
+        <row r="517">
+          <cell r="A517"/>
+          <cell r="B517"/>
+        </row>
+        <row r="518">
+          <cell r="A518"/>
+          <cell r="B518"/>
+        </row>
+        <row r="519">
+          <cell r="A519"/>
+          <cell r="B519"/>
+        </row>
+        <row r="520">
+          <cell r="A520"/>
+          <cell r="B520"/>
+        </row>
+        <row r="521">
+          <cell r="A521"/>
+          <cell r="B521"/>
+        </row>
+        <row r="522">
+          <cell r="A522"/>
+          <cell r="B522"/>
+        </row>
+        <row r="523">
+          <cell r="A523"/>
+          <cell r="B523"/>
+        </row>
+        <row r="524">
+          <cell r="A524"/>
+          <cell r="B524"/>
+        </row>
+        <row r="525">
+          <cell r="A525"/>
+          <cell r="B525"/>
+        </row>
+        <row r="526">
+          <cell r="A526"/>
+          <cell r="B526"/>
+        </row>
+        <row r="527">
+          <cell r="A527"/>
+          <cell r="B527"/>
+        </row>
+        <row r="528">
+          <cell r="A528"/>
+          <cell r="B528"/>
+        </row>
+        <row r="529">
+          <cell r="A529"/>
+          <cell r="B529"/>
+        </row>
+        <row r="530">
+          <cell r="A530"/>
+          <cell r="B530"/>
+        </row>
+        <row r="531">
+          <cell r="A531"/>
+          <cell r="B531"/>
+        </row>
+        <row r="532">
+          <cell r="A532"/>
+          <cell r="B532"/>
+        </row>
+        <row r="533">
+          <cell r="A533"/>
+          <cell r="B533"/>
+        </row>
+        <row r="534">
+          <cell r="A534"/>
+          <cell r="B534"/>
+        </row>
+        <row r="535">
+          <cell r="A535"/>
+          <cell r="B535"/>
+        </row>
+        <row r="536">
+          <cell r="A536"/>
+          <cell r="B536"/>
+        </row>
+        <row r="537">
+          <cell r="A537"/>
+          <cell r="B537"/>
+        </row>
+        <row r="538">
+          <cell r="A538"/>
+          <cell r="B538"/>
+        </row>
+        <row r="539">
+          <cell r="A539"/>
+          <cell r="B539"/>
+        </row>
+        <row r="540">
+          <cell r="A540"/>
+          <cell r="B540"/>
+        </row>
+        <row r="541">
+          <cell r="A541"/>
+          <cell r="B541"/>
+        </row>
+        <row r="542">
+          <cell r="A542"/>
+          <cell r="B542"/>
+        </row>
+        <row r="543">
+          <cell r="A543"/>
+          <cell r="B543"/>
+        </row>
+        <row r="544">
+          <cell r="A544"/>
+          <cell r="B544"/>
+        </row>
+        <row r="545">
+          <cell r="A545"/>
+          <cell r="B545"/>
+        </row>
+        <row r="546">
+          <cell r="A546"/>
+          <cell r="B546"/>
+        </row>
+        <row r="547">
+          <cell r="A547"/>
+          <cell r="B547"/>
+        </row>
+        <row r="548">
+          <cell r="A548"/>
+          <cell r="B548"/>
+        </row>
+        <row r="549">
+          <cell r="A549"/>
+          <cell r="B549"/>
+        </row>
+        <row r="550">
+          <cell r="A550"/>
+          <cell r="B550"/>
+        </row>
+        <row r="551">
+          <cell r="A551"/>
+          <cell r="B551"/>
+        </row>
+        <row r="552">
+          <cell r="A552"/>
+          <cell r="B552"/>
+        </row>
+        <row r="553">
+          <cell r="A553"/>
+          <cell r="B553"/>
+        </row>
+        <row r="554">
+          <cell r="A554"/>
+          <cell r="B554"/>
+        </row>
+        <row r="555">
+          <cell r="A555"/>
+          <cell r="B555"/>
+        </row>
+        <row r="556">
+          <cell r="A556"/>
+          <cell r="B556"/>
+        </row>
+        <row r="557">
+          <cell r="A557"/>
+          <cell r="B557"/>
+        </row>
+        <row r="558">
+          <cell r="A558"/>
+          <cell r="B558"/>
+        </row>
+        <row r="559">
+          <cell r="A559"/>
+          <cell r="B559"/>
+        </row>
+        <row r="560">
+          <cell r="A560"/>
+          <cell r="B560"/>
+        </row>
+        <row r="561">
+          <cell r="A561"/>
+          <cell r="B561"/>
+        </row>
+        <row r="562">
+          <cell r="A562"/>
+          <cell r="B562"/>
+        </row>
+        <row r="563">
+          <cell r="A563"/>
+          <cell r="B563"/>
+        </row>
+        <row r="564">
+          <cell r="A564"/>
+          <cell r="B564"/>
+        </row>
+        <row r="565">
+          <cell r="A565"/>
+          <cell r="B565"/>
+        </row>
+        <row r="566">
+          <cell r="A566"/>
+          <cell r="B566"/>
+        </row>
+        <row r="567">
+          <cell r="A567"/>
+          <cell r="B567"/>
+        </row>
+        <row r="568">
+          <cell r="A568"/>
+          <cell r="B568"/>
+        </row>
+        <row r="569">
+          <cell r="A569"/>
+          <cell r="B569"/>
+        </row>
+        <row r="570">
+          <cell r="A570"/>
+          <cell r="B570"/>
+        </row>
+        <row r="571">
+          <cell r="A571"/>
+          <cell r="B571"/>
+        </row>
+        <row r="572">
+          <cell r="A572"/>
+          <cell r="B572"/>
+        </row>
+        <row r="573">
+          <cell r="A573"/>
+          <cell r="B573"/>
+        </row>
+        <row r="574">
+          <cell r="A574"/>
+          <cell r="B574"/>
+        </row>
+        <row r="575">
+          <cell r="A575"/>
+          <cell r="B575"/>
+        </row>
+        <row r="576">
+          <cell r="A576"/>
+          <cell r="B576"/>
+        </row>
+        <row r="577">
+          <cell r="A577"/>
+          <cell r="B577"/>
+        </row>
+        <row r="578">
+          <cell r="A578"/>
+          <cell r="B578"/>
+        </row>
+        <row r="579">
+          <cell r="A579"/>
+          <cell r="B579"/>
+        </row>
+        <row r="580">
+          <cell r="A580"/>
+          <cell r="B580"/>
+        </row>
+        <row r="581">
+          <cell r="A581"/>
+          <cell r="B581"/>
+        </row>
+        <row r="582">
+          <cell r="A582"/>
+          <cell r="B582"/>
+        </row>
+        <row r="583">
+          <cell r="A583"/>
+          <cell r="B583"/>
+        </row>
+        <row r="584">
+          <cell r="A584"/>
+          <cell r="B584"/>
+        </row>
+        <row r="585">
+          <cell r="A585"/>
+          <cell r="B585"/>
+        </row>
+        <row r="586">
+          <cell r="A586"/>
+          <cell r="B586"/>
+        </row>
+        <row r="587">
+          <cell r="A587"/>
+          <cell r="B587"/>
+        </row>
+        <row r="588">
+          <cell r="A588"/>
+          <cell r="B588"/>
+        </row>
+        <row r="589">
+          <cell r="A589"/>
+          <cell r="B589"/>
+        </row>
+        <row r="590">
+          <cell r="A590"/>
+          <cell r="B590"/>
+        </row>
+        <row r="591">
+          <cell r="A591"/>
+          <cell r="B591"/>
+        </row>
+        <row r="592">
+          <cell r="A592"/>
+          <cell r="B592"/>
+        </row>
+        <row r="593">
+          <cell r="A593"/>
+          <cell r="B593"/>
+        </row>
+        <row r="594">
+          <cell r="A594"/>
+          <cell r="B594"/>
+        </row>
+        <row r="595">
+          <cell r="A595"/>
+          <cell r="B595"/>
+        </row>
+        <row r="596">
+          <cell r="A596"/>
+          <cell r="B596"/>
+        </row>
+        <row r="597">
+          <cell r="A597"/>
+          <cell r="B597"/>
+        </row>
+        <row r="598">
+          <cell r="A598"/>
+          <cell r="B598"/>
+        </row>
+        <row r="599">
+          <cell r="A599"/>
+          <cell r="B599"/>
+        </row>
+        <row r="600">
+          <cell r="A600"/>
+          <cell r="B600"/>
+        </row>
+        <row r="601">
+          <cell r="A601"/>
+          <cell r="B601"/>
+        </row>
+        <row r="602">
+          <cell r="A602"/>
+          <cell r="B602"/>
+        </row>
+        <row r="603">
+          <cell r="A603"/>
+          <cell r="B603"/>
+        </row>
+        <row r="604">
+          <cell r="A604"/>
+          <cell r="B604"/>
+        </row>
+        <row r="605">
+          <cell r="A605"/>
+          <cell r="B605"/>
+        </row>
+        <row r="606">
+          <cell r="A606"/>
+          <cell r="B606"/>
+        </row>
+        <row r="607">
+          <cell r="A607"/>
+          <cell r="B607"/>
+        </row>
+        <row r="608">
+          <cell r="A608"/>
+          <cell r="B608"/>
+        </row>
+        <row r="609">
+          <cell r="A609"/>
+          <cell r="B609"/>
+        </row>
+        <row r="610">
+          <cell r="A610"/>
+          <cell r="B610"/>
+        </row>
+        <row r="611">
+          <cell r="A611"/>
+          <cell r="B611"/>
+        </row>
+        <row r="612">
+          <cell r="A612"/>
+          <cell r="B612"/>
+        </row>
+        <row r="613">
+          <cell r="A613"/>
+          <cell r="B613"/>
+        </row>
+        <row r="614">
+          <cell r="A614"/>
+          <cell r="B614"/>
+        </row>
+        <row r="615">
+          <cell r="A615"/>
+          <cell r="B615"/>
+        </row>
+        <row r="616">
+          <cell r="A616"/>
+          <cell r="B616"/>
+        </row>
+        <row r="617">
+          <cell r="A617"/>
+          <cell r="B617"/>
+        </row>
+        <row r="618">
+          <cell r="A618"/>
+          <cell r="B618"/>
+        </row>
+        <row r="619">
+          <cell r="A619"/>
+          <cell r="B619"/>
+        </row>
+        <row r="620">
+          <cell r="A620"/>
+          <cell r="B620"/>
+        </row>
+        <row r="621">
+          <cell r="A621"/>
+          <cell r="B621"/>
+        </row>
+        <row r="622">
+          <cell r="A622"/>
+          <cell r="B622"/>
+        </row>
+        <row r="623">
+          <cell r="A623"/>
+          <cell r="B623"/>
+        </row>
+        <row r="624">
+          <cell r="A624"/>
+          <cell r="B624"/>
+        </row>
+        <row r="625">
+          <cell r="A625"/>
+          <cell r="B625"/>
+        </row>
+        <row r="626">
+          <cell r="A626"/>
+          <cell r="B626"/>
+        </row>
+        <row r="627">
+          <cell r="A627"/>
+          <cell r="B627"/>
+        </row>
+        <row r="628">
+          <cell r="A628"/>
+          <cell r="B628"/>
+        </row>
+        <row r="629">
+          <cell r="A629"/>
+          <cell r="B629"/>
+        </row>
+        <row r="630">
+          <cell r="A630"/>
+          <cell r="B630"/>
+        </row>
+        <row r="631">
+          <cell r="A631"/>
+          <cell r="B631"/>
+        </row>
+        <row r="632">
+          <cell r="A632"/>
+          <cell r="B632"/>
+        </row>
+        <row r="633">
+          <cell r="A633"/>
+          <cell r="B633"/>
+        </row>
+        <row r="634">
+          <cell r="A634"/>
+          <cell r="B634"/>
+        </row>
+        <row r="635">
+          <cell r="A635"/>
+          <cell r="B635"/>
+        </row>
+        <row r="636">
+          <cell r="A636"/>
+          <cell r="B636"/>
+        </row>
+        <row r="637">
+          <cell r="A637"/>
+          <cell r="B637"/>
+        </row>
+        <row r="638">
+          <cell r="A638"/>
+          <cell r="B638"/>
+        </row>
+        <row r="639">
+          <cell r="A639"/>
+          <cell r="B639"/>
+        </row>
+        <row r="640">
+          <cell r="A640"/>
+          <cell r="B640"/>
+        </row>
+        <row r="641">
+          <cell r="A641"/>
+          <cell r="B641"/>
+        </row>
+        <row r="642">
+          <cell r="A642"/>
+          <cell r="B642"/>
+        </row>
+        <row r="643">
+          <cell r="A643"/>
+          <cell r="B643"/>
+        </row>
+        <row r="644">
+          <cell r="A644"/>
+          <cell r="B644"/>
+        </row>
+        <row r="645">
+          <cell r="A645"/>
+          <cell r="B645"/>
+        </row>
+        <row r="646">
+          <cell r="A646"/>
+          <cell r="B646"/>
+        </row>
+        <row r="647">
+          <cell r="A647"/>
+          <cell r="B647"/>
+        </row>
+        <row r="648">
+          <cell r="A648"/>
+          <cell r="B648"/>
+        </row>
+        <row r="649">
+          <cell r="A649"/>
+          <cell r="B649"/>
+        </row>
+        <row r="650">
+          <cell r="A650"/>
+          <cell r="B650"/>
+        </row>
+        <row r="651">
+          <cell r="A651"/>
+          <cell r="B651"/>
+        </row>
+        <row r="652">
+          <cell r="A652"/>
+          <cell r="B652"/>
+        </row>
+        <row r="653">
+          <cell r="A653"/>
+          <cell r="B653"/>
+        </row>
+        <row r="654">
+          <cell r="A654"/>
+          <cell r="B654"/>
+        </row>
+        <row r="655">
+          <cell r="A655"/>
+          <cell r="B655"/>
+        </row>
+        <row r="656">
+          <cell r="A656"/>
+          <cell r="B656"/>
+        </row>
+        <row r="657">
+          <cell r="A657"/>
+          <cell r="B657"/>
+        </row>
+        <row r="658">
+          <cell r="A658"/>
+          <cell r="B658"/>
+        </row>
+        <row r="659">
+          <cell r="A659"/>
+          <cell r="B659"/>
+        </row>
+        <row r="660">
+          <cell r="A660"/>
+          <cell r="B660"/>
+        </row>
+        <row r="661">
+          <cell r="A661"/>
+          <cell r="B661"/>
+        </row>
+        <row r="662">
+          <cell r="A662"/>
+          <cell r="B662"/>
+        </row>
+        <row r="663">
+          <cell r="A663"/>
+          <cell r="B663"/>
+        </row>
+        <row r="664">
+          <cell r="A664"/>
+          <cell r="B664"/>
+        </row>
+        <row r="665">
+          <cell r="A665"/>
+          <cell r="B665"/>
+        </row>
+        <row r="666">
+          <cell r="A666"/>
+          <cell r="B666"/>
+        </row>
+        <row r="667">
+          <cell r="A667"/>
+          <cell r="B667"/>
+        </row>
+        <row r="668">
+          <cell r="A668"/>
+          <cell r="B668"/>
+        </row>
+        <row r="669">
+          <cell r="A669"/>
+          <cell r="B669"/>
+        </row>
+        <row r="670">
+          <cell r="A670"/>
+          <cell r="B670"/>
+        </row>
+        <row r="671">
+          <cell r="A671"/>
+          <cell r="B671"/>
+        </row>
+        <row r="672">
+          <cell r="A672"/>
+          <cell r="B672"/>
+        </row>
+        <row r="673">
+          <cell r="A673"/>
+          <cell r="B673"/>
+        </row>
+        <row r="674">
+          <cell r="A674"/>
+          <cell r="B674"/>
+        </row>
+        <row r="675">
+          <cell r="A675"/>
+          <cell r="B675"/>
+        </row>
+        <row r="676">
+          <cell r="A676"/>
+          <cell r="B676"/>
+        </row>
+        <row r="677">
+          <cell r="A677"/>
+          <cell r="B677"/>
+        </row>
+        <row r="678">
+          <cell r="A678"/>
+          <cell r="B678"/>
         </row>
       </sheetData>
       <sheetData sheetId="8">
@@ -8024,7 +10424,9 @@
           </cell>
         </row>
         <row r="197">
-          <cell r="A197"/>
+          <cell r="A197" t="str">
+            <v/>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="9"/>
@@ -11239,8 +13641,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O1018"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1019" sqref="I1019"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13315,7 +15717,7 @@
         <v>63</v>
       </c>
       <c r="M47" t="s">
-        <v>64</v>
+        <v>1578</v>
       </c>
       <c r="O47" t="s">
         <v>225</v>
@@ -46912,7 +49314,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="827" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A827" s="9" t="s">
         <v>223</v>
       </c>
@@ -46955,7 +49357,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="828" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A828" s="9" t="s">
         <v>223</v>
       </c>
@@ -46998,7 +49400,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="829" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A829" s="9" t="s">
         <v>223</v>
       </c>
@@ -47041,7 +49443,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="830" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A830" s="9" t="s">
         <v>223</v>
       </c>
@@ -47084,7 +49486,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="831" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A831" s="9" t="s">
         <v>223</v>
       </c>
@@ -47127,7 +49529,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="832" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A832" s="9" t="s">
         <v>223</v>
       </c>
@@ -47170,7 +49572,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="833" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A833" s="9" t="s">
         <v>223</v>
       </c>
@@ -47301,7 +49703,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="836" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A836" s="9" t="s">
         <v>223</v>
       </c>
@@ -47651,7 +50053,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="844" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A844" s="9" t="s">
         <v>223</v>
       </c>
@@ -53887,7 +56289,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="986" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="986" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A986" s="9" t="s">
         <v>223</v>
       </c>
@@ -53930,7 +56332,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="987" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="987" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A987" s="9" t="s">
         <v>223</v>
       </c>
@@ -54061,7 +56463,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="990" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="990" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A990" s="9" t="s">
         <v>223</v>
       </c>
@@ -54104,7 +56506,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="991" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="991" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A991" s="9" t="s">
         <v>223</v>
       </c>
@@ -54191,7 +56593,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="993" spans="1:13" ht="20" hidden="1" x14ac:dyDescent="0.35">
+    <row r="993" spans="1:13" ht="20" x14ac:dyDescent="0.35">
       <c r="A993" s="9" t="s">
         <v>223</v>
       </c>
@@ -55261,11 +57663,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N1018" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="RRHH"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters>
         <filter val="joroval@sklum.com"/>
@@ -89237,12 +91634,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101003C2C3FC3998BA94F8140D26060A598C4" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="3bcade5267744b7edf091de635520d13">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="93bca376-795d-4205-ab1b-3778bdc99034" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71c08f371df1afbb935fc27f7067d6a3" ns2:_="">
     <xsd:import namespace="93bca376-795d-4205-ab1b-3778bdc99034"/>
@@ -89386,6 +91777,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -89396,15 +91793,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1C98D1-EA05-4F38-A172-E251D8EBC5F8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE3A841B-D7D2-48BB-A09C-10BC24428D16}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -89422,6 +91810,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1C98D1-EA05-4F38-A172-E251D8EBC5F8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12D36B1C-DD28-48D8-AEAA-3C4D5BC5C54E}">
   <ds:schemaRefs>
